--- a/public/data/Germany10States.xlsx
+++ b/public/data/Germany10States.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nancyyu/Documents/R website/First_Website/static/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{445C21D1-1FF4-5D44-8134-32788A3A43A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC6BA758-02DE-0546-B252-B25639D4FD7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="3500" windowWidth="25500" windowHeight="17040"/>
+    <workbookView xWindow="8160" yWindow="460" windowWidth="25500" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany10States" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="20">
   <si>
     <t>State</t>
   </si>
@@ -85,9 +95,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -568,7 +578,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -924,11 +934,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J211"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="I64" sqref="I64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91:XFD91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1662,66 +1672,44 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23">
-        <v>886</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>6</v>
-      </c>
-      <c r="G23">
-        <v>4</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24">
-        <v>1067</v>
+        <v>19395</v>
       </c>
       <c r="C24">
-        <v>181</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
+        <v>781</v>
+      </c>
+      <c r="D24" s="2">
+        <f>SUM(C21:C24)/3</f>
+        <v>1044.3333333333333</v>
+      </c>
+      <c r="E24" s="2">
+        <f>SUM(C19:C24)/5</f>
+        <v>1092.2</v>
       </c>
       <c r="F24">
-        <v>7</v>
+        <v>175</v>
       </c>
       <c r="G24">
-        <v>4</v>
+        <v>387</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="J24" s="1">
-        <v>0</v>
+        <f>D24/(SUM(B20:B22)/3)*100</f>
+        <v>6.5633183198910654</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -1729,10 +1717,10 @@
         <v>10</v>
       </c>
       <c r="B25">
-        <v>1109</v>
+        <v>886</v>
       </c>
       <c r="C25">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1741,16 +1729,16 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G25">
         <v>4</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J25" s="1">
         <v>0</v>
@@ -1761,32 +1749,31 @@
         <v>10</v>
       </c>
       <c r="B26">
-        <v>1243</v>
+        <v>1067</v>
       </c>
       <c r="C26">
-        <v>134</v>
+        <v>181</v>
       </c>
       <c r="D26">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G26">
         <v>4</v>
       </c>
       <c r="H26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J26" s="1">
-        <f>D26/(SUM(B23:B25)/3)*100</f>
-        <v>14.990202482037883</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -1794,32 +1781,31 @@
         <v>10</v>
       </c>
       <c r="B27">
-        <v>1692</v>
+        <v>1109</v>
       </c>
       <c r="C27">
-        <v>449</v>
+        <v>144</v>
       </c>
       <c r="D27">
-        <v>242</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G27">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J27" s="1">
-        <f>D27/(SUM(B24:B26)/3)*100</f>
-        <v>21.234279028955832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -1827,32 +1813,32 @@
         <v>10</v>
       </c>
       <c r="B28">
-        <v>2401</v>
+        <v>1243</v>
       </c>
       <c r="C28">
-        <v>709</v>
+        <v>134</v>
       </c>
       <c r="D28">
-        <v>431</v>
+        <v>153</v>
       </c>
       <c r="E28">
-        <v>323</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G28">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H28">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I28">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" ref="J28:J43" si="1">D28/(SUM(B25:B27)/3)*100</f>
-        <v>31.973293768545997</v>
+        <f>D28/(SUM(B25:B27)/3)*100</f>
+        <v>14.990202482037883</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -1860,32 +1846,32 @@
         <v>10</v>
       </c>
       <c r="B29">
-        <v>2960</v>
+        <v>1692</v>
       </c>
       <c r="C29">
-        <v>559</v>
+        <v>449</v>
       </c>
       <c r="D29">
-        <v>572</v>
+        <v>242</v>
       </c>
       <c r="E29">
-        <v>399</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G29">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H29">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I29">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="1"/>
-        <v>32.158920539730133</v>
+        <f>D29/(SUM(B26:B28)/3)*100</f>
+        <v>21.234279028955832</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -1893,32 +1879,32 @@
         <v>10</v>
       </c>
       <c r="B30">
-        <v>3650</v>
+        <v>2401</v>
       </c>
       <c r="C30">
-        <v>690</v>
+        <v>709</v>
       </c>
       <c r="D30">
-        <v>653</v>
+        <v>431</v>
       </c>
       <c r="E30">
-        <v>508</v>
+        <v>323</v>
       </c>
       <c r="F30">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G30">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H30">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I30">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="1"/>
-        <v>27.775414717141643</v>
+        <f t="shared" ref="J30:J45" si="1">D30/(SUM(B27:B29)/3)*100</f>
+        <v>31.973293768545997</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -1926,32 +1912,32 @@
         <v>10</v>
       </c>
       <c r="B31">
-        <v>4892</v>
+        <v>2960</v>
       </c>
       <c r="C31">
-        <v>1242</v>
+        <v>559</v>
       </c>
       <c r="D31">
-        <v>830</v>
+        <v>572</v>
       </c>
       <c r="E31">
-        <v>730</v>
+        <v>399</v>
       </c>
       <c r="F31">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="G31">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H31">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I31">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" si="1"/>
-        <v>27.632893130618136</v>
+        <v>32.158920539730133</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -1959,32 +1945,32 @@
         <v>10</v>
       </c>
       <c r="B32">
-        <v>5754</v>
+        <v>3650</v>
       </c>
       <c r="C32">
-        <v>862</v>
+        <v>690</v>
       </c>
       <c r="D32">
-        <v>931</v>
+        <v>653</v>
       </c>
       <c r="E32">
-        <v>812</v>
+        <v>508</v>
       </c>
       <c r="F32">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="G32">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H32">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I32">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J32" s="1">
         <f t="shared" si="1"/>
-        <v>24.282733437663016</v>
+        <v>27.775414717141643</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -1992,32 +1978,32 @@
         <v>10</v>
       </c>
       <c r="B33">
-        <v>6558</v>
+        <v>4892</v>
       </c>
       <c r="C33">
-        <v>804</v>
+        <v>1242</v>
       </c>
       <c r="D33">
-        <v>969</v>
+        <v>830</v>
       </c>
       <c r="E33">
-        <v>831</v>
+        <v>730</v>
       </c>
       <c r="F33">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G33">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="H33">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I33">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J33" s="1">
         <f t="shared" si="1"/>
-        <v>20.334359261331841</v>
+        <v>27.632893130618136</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -2025,32 +2011,32 @@
         <v>10</v>
       </c>
       <c r="B34">
-        <v>7993</v>
+        <v>5754</v>
       </c>
       <c r="C34">
-        <v>1435</v>
+        <v>862</v>
       </c>
       <c r="D34">
-        <v>1034</v>
+        <v>931</v>
       </c>
       <c r="E34">
-        <v>1007</v>
+        <v>812</v>
       </c>
       <c r="F34">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G34">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H34">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I34">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J34" s="1">
         <f t="shared" si="1"/>
-        <v>18.0306905370844</v>
+        <v>24.282733437663016</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -2058,32 +2044,32 @@
         <v>10</v>
       </c>
       <c r="B35">
-        <v>9481</v>
+        <v>6558</v>
       </c>
       <c r="C35">
-        <v>1488</v>
+        <v>804</v>
       </c>
       <c r="D35">
-        <v>1242</v>
+        <v>969</v>
       </c>
       <c r="E35">
-        <v>1166</v>
+        <v>831</v>
       </c>
       <c r="F35">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="G35">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="H35">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I35">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J35" s="1">
         <f t="shared" si="1"/>
-        <v>18.350160059098744</v>
+        <v>20.334359261331841</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -2091,32 +2077,32 @@
         <v>10</v>
       </c>
       <c r="B36">
-        <v>11150</v>
+        <v>7993</v>
       </c>
       <c r="C36">
-        <v>1669</v>
+        <v>1435</v>
       </c>
       <c r="D36">
-        <v>1531</v>
+        <v>1034</v>
       </c>
       <c r="E36">
-        <v>1252</v>
+        <v>1007</v>
       </c>
       <c r="F36">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="G36">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="H36">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I36">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J36" s="1">
         <f t="shared" si="1"/>
-        <v>19.112017310252995</v>
+        <v>18.0306905370844</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -2124,32 +2110,32 @@
         <v>10</v>
       </c>
       <c r="B37">
-        <v>12881</v>
+        <v>9481</v>
       </c>
       <c r="C37">
-        <v>1731</v>
+        <v>1488</v>
       </c>
       <c r="D37">
-        <v>1629</v>
+        <v>1242</v>
       </c>
       <c r="E37">
-        <v>1425</v>
+        <v>1166</v>
       </c>
       <c r="F37">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="G37">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="H37">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I37">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J37" s="1">
         <f t="shared" si="1"/>
-        <v>17.073085522638344</v>
+        <v>18.350160059098744</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -2157,32 +2143,32 @@
         <v>10</v>
       </c>
       <c r="B38">
-        <v>13989</v>
+        <v>11150</v>
       </c>
       <c r="C38">
-        <v>1108</v>
+        <v>1669</v>
       </c>
       <c r="D38">
-        <v>1503</v>
+        <v>1531</v>
       </c>
       <c r="E38">
-        <v>1486</v>
+        <v>1252</v>
       </c>
       <c r="F38">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="G38">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="H38">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I38">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J38" s="1">
         <f t="shared" si="1"/>
-        <v>13.45488183337312</v>
+        <v>19.112017310252995</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -2190,32 +2176,32 @@
         <v>10</v>
       </c>
       <c r="B39">
-        <v>14810</v>
+        <v>12881</v>
       </c>
       <c r="C39">
-        <v>821</v>
+        <v>1731</v>
       </c>
       <c r="D39">
-        <v>1220</v>
+        <v>1629</v>
       </c>
       <c r="E39">
-        <v>1363</v>
+        <v>1425</v>
       </c>
       <c r="F39">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="G39">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="H39">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I39">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J39" s="1">
         <f t="shared" si="1"/>
-        <v>9.6265123619147808</v>
+        <v>17.073085522638344</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -2223,32 +2209,32 @@
         <v>10</v>
       </c>
       <c r="B40">
-        <v>16497</v>
+        <v>13989</v>
       </c>
       <c r="C40">
-        <v>1687</v>
+        <v>1108</v>
       </c>
       <c r="D40">
-        <v>1205</v>
+        <v>1503</v>
       </c>
       <c r="E40">
-        <v>1403</v>
+        <v>1486</v>
       </c>
       <c r="F40">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="G40">
-        <v>225</v>
+        <v>127</v>
       </c>
       <c r="H40">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I40">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J40" s="1">
         <f t="shared" si="1"/>
-        <v>8.6732245681381954</v>
+        <v>13.45488183337312</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -2256,32 +2242,32 @@
         <v>10</v>
       </c>
       <c r="B41">
-        <v>18496</v>
+        <v>14810</v>
       </c>
       <c r="C41">
-        <v>1999</v>
+        <v>821</v>
       </c>
       <c r="D41">
-        <v>1502</v>
+        <v>1220</v>
       </c>
       <c r="E41">
-        <v>1469</v>
+        <v>1363</v>
       </c>
       <c r="F41">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="G41">
-        <v>268</v>
+        <v>162</v>
       </c>
       <c r="H41">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I41">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J41" s="1">
         <f t="shared" si="1"/>
-        <v>9.9478982691628399</v>
+        <v>9.6265123619147808</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -2289,32 +2275,32 @@
         <v>10</v>
       </c>
       <c r="B42">
-        <v>20237</v>
+        <v>16497</v>
       </c>
       <c r="C42">
-        <v>1741</v>
+        <v>1687</v>
       </c>
       <c r="D42">
-        <v>1809</v>
+        <v>1205</v>
       </c>
       <c r="E42">
-        <v>1471</v>
+        <v>1403</v>
       </c>
       <c r="F42">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="G42">
-        <v>307</v>
+        <v>225</v>
       </c>
       <c r="H42">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I42">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J42" s="1">
         <f t="shared" si="1"/>
-        <v>10.896933919643395</v>
+        <v>8.6732245681381954</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -2322,163 +2308,151 @@
         <v>10</v>
       </c>
       <c r="B43">
-        <v>21908</v>
+        <v>18496</v>
       </c>
       <c r="C43">
-        <v>1671</v>
-      </c>
-      <c r="D43" s="2">
-        <f>SUM(C41:C43)/3</f>
-        <v>1803.6666666666667</v>
-      </c>
-      <c r="E43" s="2">
-        <f>SUM(C39:C43)/5</f>
-        <v>1583.8</v>
+        <v>1999</v>
+      </c>
+      <c r="D43">
+        <v>1502</v>
+      </c>
+      <c r="E43">
+        <v>1469</v>
       </c>
       <c r="F43">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="G43">
-        <v>349</v>
+        <v>268</v>
       </c>
       <c r="H43">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I43">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J43" s="1">
         <f t="shared" si="1"/>
-        <v>9.7972116603295323</v>
+        <v>9.9478982691628399</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B44">
-        <v>265</v>
+        <v>20237</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>1741</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1809</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1471</v>
       </c>
       <c r="F44">
-        <v>7</v>
+        <v>155</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>307</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J44" s="1">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>10.896933919643395</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B45">
-        <v>300</v>
+        <v>21908</v>
       </c>
       <c r="C45">
-        <v>35</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
+        <v>1671</v>
+      </c>
+      <c r="D45" s="2">
+        <f>SUM(C43:C45)/3</f>
+        <v>1803.6666666666667</v>
+      </c>
+      <c r="E45" s="2">
+        <f>SUM(C41:C45)/5</f>
+        <v>1583.8</v>
       </c>
       <c r="F45">
-        <v>8</v>
+        <v>168</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J45" s="1">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.7972116603295323</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>11</v>
-      </c>
       <c r="B46">
-        <v>345</v>
+        <v>23846</v>
       </c>
       <c r="C46">
-        <v>45</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
+        <v>1938</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
       <c r="F46">
-        <v>9</v>
+        <v>182</v>
       </c>
       <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>3</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46" s="1">
-        <v>0</v>
+        <v>396</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B47">
-        <v>391</v>
+        <v>24974</v>
       </c>
       <c r="C47">
-        <v>46</v>
-      </c>
-      <c r="D47">
-        <v>42</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
+        <v>1128</v>
+      </c>
+      <c r="D47" s="2">
+        <f>SUM(C44:C47)/3</f>
+        <v>2159.3333333333335</v>
+      </c>
+      <c r="E47" s="2">
+        <f>SUM(C42:C47)/5</f>
+        <v>2032.8</v>
       </c>
       <c r="F47">
-        <v>10</v>
+        <v>191</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>437</v>
       </c>
       <c r="H47">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J47" s="1">
-        <f t="shared" ref="J47:J64" si="2">D47/(SUM(B44:B46)/3)*100</f>
-        <v>13.846153846153847</v>
+        <f>D47/(SUM(B43:B45)/3)*100</f>
+        <v>10.682541514816709</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -2486,32 +2460,31 @@
         <v>11</v>
       </c>
       <c r="B48">
-        <v>573</v>
+        <v>265</v>
       </c>
       <c r="C48">
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48" s="1">
-        <f t="shared" si="2"/>
-        <v>26.351351351351354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -2519,32 +2492,31 @@
         <v>11</v>
       </c>
       <c r="B49">
-        <v>731</v>
+        <v>300</v>
       </c>
       <c r="C49">
-        <v>158</v>
+        <v>35</v>
       </c>
       <c r="D49">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49" s="1">
-        <f t="shared" si="2"/>
-        <v>29.564553093964861</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
@@ -2552,32 +2524,31 @@
         <v>11</v>
       </c>
       <c r="B50">
-        <v>866</v>
+        <v>345</v>
       </c>
       <c r="C50">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="D50">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" s="1">
-        <f t="shared" si="2"/>
-        <v>27.964601769911507</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
@@ -2585,32 +2556,32 @@
         <v>11</v>
       </c>
       <c r="B51">
-        <v>1024</v>
+        <v>391</v>
       </c>
       <c r="C51">
-        <v>158</v>
+        <v>46</v>
       </c>
       <c r="D51">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="E51">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J51" s="1">
-        <f t="shared" si="2"/>
-        <v>20.737327188940093</v>
+        <f t="shared" ref="J51:J68" si="2">D51/(SUM(B48:B50)/3)*100</f>
+        <v>13.846153846153847</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -2618,32 +2589,32 @@
         <v>11</v>
       </c>
       <c r="B52">
-        <v>1077</v>
+        <v>573</v>
       </c>
       <c r="C52">
-        <v>53</v>
+        <v>182</v>
       </c>
       <c r="D52">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E52">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J52" s="1">
         <f t="shared" si="2"/>
-        <v>13.162914917970243</v>
+        <v>26.351351351351354</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
@@ -2651,32 +2622,32 @@
         <v>11</v>
       </c>
       <c r="B53">
-        <v>1220</v>
+        <v>731</v>
       </c>
       <c r="C53">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="D53">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="E53">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="F53">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I53">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J53" s="1">
         <f t="shared" si="2"/>
-        <v>11.931243680485339</v>
+        <v>29.564553093964861</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -2684,32 +2655,32 @@
         <v>11</v>
       </c>
       <c r="B54">
-        <v>1428</v>
+        <v>866</v>
       </c>
       <c r="C54">
-        <v>208</v>
+        <v>135</v>
       </c>
       <c r="D54">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="E54">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="F54">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="G54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J54" s="1">
         <f t="shared" si="2"/>
-        <v>12.195121951219512</v>
+        <v>27.964601769911507</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
@@ -2717,32 +2688,32 @@
         <v>11</v>
       </c>
       <c r="B55">
-        <v>1656</v>
+        <v>1024</v>
       </c>
       <c r="C55">
-        <v>228</v>
+        <v>158</v>
       </c>
       <c r="D55">
-        <v>193</v>
+        <v>150</v>
       </c>
       <c r="E55">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="F55">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="G55">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I55">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J55" s="1">
         <f t="shared" si="2"/>
-        <v>15.543624161073824</v>
+        <v>20.737327188940093</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
@@ -2750,32 +2721,32 @@
         <v>11</v>
       </c>
       <c r="B56">
-        <v>1955</v>
+        <v>1077</v>
       </c>
       <c r="C56">
-        <v>299</v>
+        <v>53</v>
       </c>
       <c r="D56">
-        <v>245</v>
+        <v>115</v>
       </c>
       <c r="E56">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="F56">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G56">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H56">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I56">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J56" s="1">
         <f t="shared" si="2"/>
-        <v>17.0771375464684</v>
+        <v>13.162914917970243</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
@@ -2783,32 +2754,32 @@
         <v>11</v>
       </c>
       <c r="B57">
-        <v>2161</v>
+        <v>1220</v>
       </c>
       <c r="C57">
-        <v>206</v>
+        <v>143</v>
       </c>
       <c r="D57">
-        <v>244</v>
+        <v>118</v>
       </c>
       <c r="E57">
-        <v>217</v>
+        <v>129</v>
       </c>
       <c r="F57">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="G57">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H57">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I57">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J57" s="1">
         <f t="shared" si="2"/>
-        <v>14.526691803929351</v>
+        <v>11.931243680485339</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
@@ -2816,32 +2787,32 @@
         <v>11</v>
       </c>
       <c r="B58">
-        <v>2360</v>
+        <v>1428</v>
       </c>
       <c r="C58">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="D58">
-        <v>235</v>
+        <v>135</v>
       </c>
       <c r="E58">
-        <v>228</v>
+        <v>139</v>
       </c>
       <c r="F58">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="G58">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H58">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I58">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J58" s="1">
         <f t="shared" si="2"/>
-        <v>12.214137214137216</v>
+        <v>12.195121951219512</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
@@ -2849,32 +2820,32 @@
         <v>11</v>
       </c>
       <c r="B59">
-        <v>2464</v>
+        <v>1656</v>
       </c>
       <c r="C59">
-        <v>104</v>
+        <v>228</v>
       </c>
       <c r="D59">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="E59">
-        <v>207</v>
+        <v>158</v>
       </c>
       <c r="F59">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="G59">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H59">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I59">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J59" s="1">
         <f t="shared" si="2"/>
-        <v>7.8752316244595431</v>
+        <v>15.543624161073824</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
@@ -2882,32 +2853,32 @@
         <v>11</v>
       </c>
       <c r="B60">
-        <v>2575</v>
+        <v>1955</v>
       </c>
       <c r="C60">
-        <v>111</v>
+        <v>299</v>
       </c>
       <c r="D60">
-        <v>138</v>
+        <v>245</v>
       </c>
       <c r="E60">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F60">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="G60">
+        <v>8</v>
+      </c>
+      <c r="H60">
         <v>13</v>
       </c>
-      <c r="H60">
-        <v>17</v>
-      </c>
       <c r="I60">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J60" s="1">
         <f t="shared" si="2"/>
-        <v>5.926986399427344</v>
+        <v>17.0771375464684</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
@@ -2915,32 +2886,32 @@
         <v>11</v>
       </c>
       <c r="B61">
-        <v>2754</v>
+        <v>2161</v>
       </c>
       <c r="C61">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="D61">
-        <v>131</v>
+        <v>244</v>
       </c>
       <c r="E61">
-        <v>160</v>
+        <v>217</v>
       </c>
       <c r="F61">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="G61">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H61">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I61">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J61" s="1">
         <f t="shared" si="2"/>
-        <v>5.3115285849439111</v>
+        <v>14.526691803929351</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
@@ -2948,32 +2919,32 @@
         <v>11</v>
       </c>
       <c r="B62">
-        <v>2970</v>
+        <v>2360</v>
       </c>
       <c r="C62">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="D62">
-        <v>169</v>
+        <v>235</v>
       </c>
       <c r="E62">
-        <v>162</v>
+        <v>228</v>
       </c>
       <c r="F62">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="G62">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="H62">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I62">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J62" s="1">
         <f t="shared" si="2"/>
-        <v>6.5058385730784041</v>
+        <v>12.214137214137216</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
@@ -2981,32 +2952,32 @@
         <v>11</v>
       </c>
       <c r="B63">
-        <v>3202</v>
+        <v>2464</v>
       </c>
       <c r="C63">
-        <v>232</v>
+        <v>104</v>
       </c>
       <c r="D63">
-        <v>209</v>
+        <v>170</v>
       </c>
       <c r="E63">
-        <v>168</v>
+        <v>207</v>
       </c>
       <c r="F63">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="G63">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H63">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I63">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J63" s="1">
         <f t="shared" si="2"/>
-        <v>7.5551271237498501</v>
+        <v>7.8752316244595431</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
@@ -3014,230 +2985,203 @@
         <v>11</v>
       </c>
       <c r="B64">
-        <v>3471</v>
+        <v>2575</v>
       </c>
       <c r="C64">
-        <v>269</v>
-      </c>
-      <c r="D64" s="2">
-        <f>SUM(C62:C64)/3</f>
-        <v>239</v>
-      </c>
-      <c r="E64" s="2">
-        <f>SUM(C60:C64)/5</f>
-        <v>201.4</v>
+        <v>111</v>
+      </c>
+      <c r="D64">
+        <v>138</v>
+      </c>
+      <c r="E64">
+        <v>184</v>
       </c>
       <c r="F64">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="G64">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H64">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I64">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J64" s="1">
         <f t="shared" si="2"/>
-        <v>8.032713421465381</v>
+        <v>5.926986399427344</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65">
+        <v>2754</v>
+      </c>
+      <c r="C65">
+        <v>179</v>
+      </c>
+      <c r="D65">
+        <v>131</v>
+      </c>
+      <c r="E65">
+        <v>160</v>
+      </c>
+      <c r="F65">
+        <v>73</v>
+      </c>
+      <c r="G65">
+        <v>16</v>
+      </c>
+      <c r="H65">
+        <v>18</v>
+      </c>
+      <c r="I65">
         <v>12</v>
       </c>
-      <c r="B65">
-        <v>162</v>
-      </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>9</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>1</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
       <c r="J65" s="1">
-        <f>D65/(SUM(B61:B63)/3)*100</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5.3115285849439111</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B66">
-        <v>260</v>
+        <v>2970</v>
       </c>
       <c r="C66">
-        <v>98</v>
+        <v>216</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="F66">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J66" s="1">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>6.5058385730784041</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B67">
-        <v>310</v>
+        <v>3202</v>
       </c>
       <c r="C67">
-        <v>55</v>
+        <v>232</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="F67">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H67">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J67" s="1">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>7.5551271237498501</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B68">
-        <v>358</v>
+        <v>3471</v>
       </c>
       <c r="C68">
-        <v>48</v>
-      </c>
-      <c r="D68">
-        <v>67</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
+        <v>269</v>
+      </c>
+      <c r="D68" s="2">
+        <f>SUM(C66:C68)/3</f>
+        <v>239</v>
+      </c>
+      <c r="E68" s="2">
+        <f>SUM(C64:C68)/5</f>
+        <v>201.4</v>
       </c>
       <c r="F68">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H68">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J68" s="1">
-        <f t="shared" ref="J68:J85" si="3">D68/(SUM(B65:B67)/3)*100</f>
-        <v>27.459016393442624</v>
+        <f t="shared" si="2"/>
+        <v>8.032713421465381</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>12</v>
-      </c>
-      <c r="B69">
-        <v>432</v>
-      </c>
-      <c r="C69">
-        <v>74</v>
-      </c>
-      <c r="D69">
-        <v>59</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>23</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>5</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69" s="1">
-        <f t="shared" si="3"/>
-        <v>19.073275862068968</v>
-      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>12</v>
       </c>
       <c r="B70">
-        <v>586</v>
+        <v>162</v>
       </c>
       <c r="C70">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
       <c r="H70">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="J70" s="1">
-        <f t="shared" si="3"/>
-        <v>25.09090909090909</v>
+        <f>D70/(SUM(B65:B67)/3)*100</f>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
@@ -3245,32 +3189,31 @@
         <v>12</v>
       </c>
       <c r="B71">
-        <v>587</v>
+        <v>260</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="D71">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="E71">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
       <c r="H71">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71" s="1">
-        <f t="shared" si="3"/>
-        <v>16.569767441860463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
@@ -3278,32 +3221,31 @@
         <v>12</v>
       </c>
       <c r="B72">
-        <v>872</v>
+        <v>310</v>
       </c>
       <c r="C72">
-        <v>285</v>
+        <v>55</v>
       </c>
       <c r="D72">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I72">
         <v>0</v>
       </c>
       <c r="J72" s="1">
-        <f t="shared" si="3"/>
-        <v>27.476635514018692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
@@ -3311,32 +3253,32 @@
         <v>12</v>
       </c>
       <c r="B73">
-        <v>943</v>
+        <v>358</v>
       </c>
       <c r="C73">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="D73">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c r="E73">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="J73" s="1">
-        <f t="shared" si="3"/>
-        <v>17.457212713936432</v>
+        <f t="shared" ref="J73:J90" si="3">D73/(SUM(B70:B72)/3)*100</f>
+        <v>27.459016393442624</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
@@ -3344,32 +3286,32 @@
         <v>12</v>
       </c>
       <c r="B74">
-        <v>1043</v>
+        <v>432</v>
       </c>
       <c r="C74">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="D74">
-        <v>152</v>
+        <v>59</v>
       </c>
       <c r="E74">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
       <c r="H74">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
       <c r="J74" s="1">
         <f t="shared" si="3"/>
-        <v>18.984179850124896</v>
+        <v>19.073275862068968</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
@@ -3377,32 +3319,32 @@
         <v>12</v>
       </c>
       <c r="B75">
-        <v>1262</v>
+        <v>586</v>
       </c>
       <c r="C75">
-        <v>219</v>
+        <v>154</v>
       </c>
       <c r="D75">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="E75">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="F75">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75" s="1">
         <f t="shared" si="3"/>
-        <v>13.64590622813156</v>
+        <v>25.09090909090909</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
@@ -3410,32 +3352,32 @@
         <v>12</v>
       </c>
       <c r="B76">
-        <v>1265</v>
+        <v>587</v>
       </c>
       <c r="C76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D76">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="E76">
-        <v>136</v>
+        <v>66</v>
       </c>
       <c r="F76">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
       <c r="H76">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76" s="1">
         <f t="shared" si="3"/>
-        <v>9.8830049261083737</v>
+        <v>16.569767441860463</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
@@ -3443,32 +3385,32 @@
         <v>12</v>
       </c>
       <c r="B77">
-        <v>1693</v>
+        <v>872</v>
       </c>
       <c r="C77">
-        <v>428</v>
+        <v>285</v>
       </c>
       <c r="D77">
-        <v>217</v>
+        <v>147</v>
       </c>
       <c r="E77">
-        <v>164</v>
+        <v>112</v>
       </c>
       <c r="F77">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="G77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" s="1">
         <f t="shared" si="3"/>
-        <v>18.235294117647058</v>
+        <v>27.476635514018692</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
@@ -3476,32 +3418,32 @@
         <v>12</v>
       </c>
       <c r="B78">
-        <v>1765</v>
+        <v>943</v>
       </c>
       <c r="C78">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D78">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="E78">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="F78">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="G78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J78" s="1">
         <f t="shared" si="3"/>
-        <v>11.943127962085308</v>
+        <v>17.457212713936432</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
@@ -3509,32 +3451,32 @@
         <v>12</v>
       </c>
       <c r="B79">
-        <v>1846</v>
+        <v>1043</v>
       </c>
       <c r="C79">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="D79">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="E79">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="F79">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="G79">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I79">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J79" s="1">
         <f t="shared" si="3"/>
-        <v>12.32267626508575</v>
+        <v>18.984179850124896</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
@@ -3542,32 +3484,32 @@
         <v>12</v>
       </c>
       <c r="B80">
-        <v>2053</v>
+        <v>1262</v>
       </c>
       <c r="C80">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="D80">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E80">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="F80">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="G80">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I80">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J80" s="1">
         <f t="shared" si="3"/>
-        <v>6.7873303167420813</v>
+        <v>13.64590622813156</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
@@ -3575,32 +3517,32 @@
         <v>12</v>
       </c>
       <c r="B81">
-        <v>2191</v>
+        <v>1265</v>
       </c>
       <c r="C81">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D81">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="E81">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c r="F81">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="G81">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I81">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J81" s="1">
         <f t="shared" si="3"/>
-        <v>7.5211864406779654</v>
+        <v>9.8830049261083737</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
@@ -3608,32 +3550,32 @@
         <v>12</v>
       </c>
       <c r="B82">
-        <v>2311</v>
+        <v>1693</v>
       </c>
       <c r="C82">
-        <v>120</v>
+        <v>428</v>
       </c>
       <c r="D82">
-        <v>155</v>
+        <v>217</v>
       </c>
       <c r="E82">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="F82">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="G82">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H82">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I82">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J82" s="1">
         <f t="shared" si="3"/>
-        <v>7.6354679802955667</v>
+        <v>18.235294117647058</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
@@ -3641,32 +3583,32 @@
         <v>12</v>
       </c>
       <c r="B83">
-        <v>2406</v>
+        <v>1765</v>
       </c>
       <c r="C83">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="D83">
-        <v>118</v>
+        <v>168</v>
       </c>
       <c r="E83">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="F83">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="G83">
+        <v>2</v>
+      </c>
+      <c r="H83">
         <v>14</v>
       </c>
-      <c r="H83">
-        <v>19</v>
-      </c>
       <c r="I83">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J83" s="1">
         <f t="shared" si="3"/>
-        <v>5.4004576659038896</v>
+        <v>11.943127962085308</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
@@ -3674,32 +3616,32 @@
         <v>12</v>
       </c>
       <c r="B84">
-        <v>2596</v>
+        <v>1846</v>
       </c>
       <c r="C84">
-        <v>190</v>
+        <v>81</v>
       </c>
       <c r="D84">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="E84">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="F84">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="G84">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H84">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I84">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J84" s="1">
         <f t="shared" si="3"/>
-        <v>5.8627678054429655</v>
+        <v>12.32267626508575</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
@@ -3707,295 +3649,239 @@
         <v>12</v>
       </c>
       <c r="B85">
-        <v>2697</v>
+        <v>2053</v>
       </c>
       <c r="C85">
-        <v>101</v>
-      </c>
-      <c r="D85" s="2">
-        <f>SUM(C83:C85)/3</f>
-        <v>128.66666666666666</v>
-      </c>
-      <c r="E85" s="2">
-        <f>SUM(C81:C85)/5</f>
-        <v>128.80000000000001</v>
+        <v>207</v>
+      </c>
+      <c r="D85">
+        <v>120</v>
+      </c>
+      <c r="E85">
+        <v>158</v>
       </c>
       <c r="F85">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="G85">
+        <v>5</v>
+      </c>
+      <c r="H85">
         <v>16</v>
       </c>
-      <c r="H85">
-        <v>21</v>
-      </c>
       <c r="I85">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J85" s="1">
         <f t="shared" si="3"/>
-        <v>5.2782715711746206</v>
+        <v>6.7873303167420813</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B86">
-        <v>286</v>
+        <v>2191</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="F86">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J86" s="1">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>7.5211864406779654</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B87">
-        <v>342</v>
+        <v>2311</v>
       </c>
       <c r="C87">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="F87">
-        <v>4</v>
+        <v>126</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J87" s="1">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>7.6354679802955667</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B88">
-        <v>373</v>
+        <v>2406</v>
       </c>
       <c r="C88">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="F88">
-        <v>6</v>
+        <v>131</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H88">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J88" s="1">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>5.4004576659038896</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B89">
-        <v>432</v>
+        <v>2596</v>
       </c>
       <c r="C89">
-        <v>59</v>
+        <v>190</v>
       </c>
       <c r="D89">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F89">
-        <v>7</v>
+        <v>141</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H89">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J89" s="1">
-        <f t="shared" ref="J89:J106" si="4">D89/(SUM(B86:B88)/3)*100</f>
-        <v>24.575424575424574</v>
+        <f t="shared" si="3"/>
+        <v>5.8627678054429655</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B90">
-        <v>682</v>
+        <v>2697</v>
       </c>
       <c r="C90">
-        <v>250</v>
-      </c>
-      <c r="D90">
-        <v>147</v>
-      </c>
-      <c r="E90">
-        <v>0</v>
+        <v>101</v>
+      </c>
+      <c r="D90" s="2">
+        <f>SUM(C88:C90)/3</f>
+        <v>128.66666666666666</v>
+      </c>
+      <c r="E90" s="2">
+        <f>SUM(C86:C90)/5</f>
+        <v>128.80000000000001</v>
       </c>
       <c r="F90">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H90">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J90" s="1">
-        <f t="shared" si="4"/>
-        <v>38.448125544899739</v>
+        <f t="shared" si="3"/>
+        <v>5.2782715711746206</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>13</v>
-      </c>
-      <c r="B91">
-        <v>813</v>
-      </c>
-      <c r="C91">
-        <v>131</v>
-      </c>
-      <c r="D91">
-        <v>147</v>
-      </c>
-      <c r="E91">
-        <v>126</v>
-      </c>
-      <c r="F91">
-        <v>13</v>
-      </c>
-      <c r="G91">
-        <v>1</v>
-      </c>
-      <c r="H91">
-        <v>6</v>
-      </c>
-      <c r="I91">
-        <v>1</v>
-      </c>
-      <c r="J91" s="1">
-        <f t="shared" si="4"/>
-        <v>29.657027572293202</v>
-      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>13</v>
-      </c>
-      <c r="B92">
-        <v>1080</v>
-      </c>
-      <c r="C92">
-        <v>267</v>
-      </c>
-      <c r="D92">
-        <v>216</v>
-      </c>
-      <c r="E92">
-        <v>168</v>
-      </c>
-      <c r="F92">
-        <v>17</v>
-      </c>
-      <c r="G92">
-        <v>2</v>
-      </c>
-      <c r="H92">
-        <v>7</v>
-      </c>
-      <c r="I92">
-        <v>2</v>
-      </c>
-      <c r="J92" s="1">
-        <f t="shared" si="4"/>
-        <v>33.627400103788268</v>
-      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>13</v>
       </c>
       <c r="B93">
-        <v>1175</v>
+        <v>286</v>
       </c>
       <c r="C93">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="D93">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="E93">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="G93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J93" s="1">
-        <f t="shared" si="4"/>
-        <v>19.106796116504853</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
@@ -4003,32 +3889,31 @@
         <v>13</v>
       </c>
       <c r="B94">
-        <v>1347</v>
+        <v>342</v>
       </c>
       <c r="C94">
-        <v>172</v>
+        <v>56</v>
       </c>
       <c r="D94">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="E94">
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="G94">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I94">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J94" s="1">
-        <f t="shared" si="4"/>
-        <v>17.405475880052151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
@@ -4036,32 +3921,31 @@
         <v>13</v>
       </c>
       <c r="B95">
-        <v>1620</v>
+        <v>373</v>
       </c>
       <c r="C95">
-        <v>273</v>
+        <v>132</v>
       </c>
       <c r="D95">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E95">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="G95">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H95">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I95">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J95" s="1">
-        <f t="shared" si="4"/>
-        <v>14.991671293725705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
@@ -4069,32 +3953,32 @@
         <v>13</v>
       </c>
       <c r="B96">
-        <v>1754</v>
+        <v>432</v>
       </c>
       <c r="C96">
-        <v>134</v>
+        <v>59</v>
       </c>
       <c r="D96">
-        <v>193</v>
+        <v>82</v>
       </c>
       <c r="E96">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
         <v>4</v>
       </c>
-      <c r="H96">
-        <v>11</v>
-      </c>
       <c r="I96">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J96" s="1">
-        <f t="shared" si="4"/>
-        <v>13.978754225012072</v>
+        <f t="shared" ref="J96:J113" si="4">D96/(SUM(B93:B95)/3)*100</f>
+        <v>24.575424575424574</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
@@ -4102,32 +3986,32 @@
         <v>13</v>
       </c>
       <c r="B97">
-        <v>2157</v>
+        <v>682</v>
       </c>
       <c r="C97">
-        <v>403</v>
+        <v>250</v>
       </c>
       <c r="D97">
-        <v>270</v>
+        <v>147</v>
       </c>
       <c r="E97">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="G97">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I97">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J97" s="1">
         <f t="shared" si="4"/>
-        <v>17.157381910612159</v>
+        <v>38.448125544899739</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
@@ -4135,32 +4019,32 @@
         <v>13</v>
       </c>
       <c r="B98">
-        <v>2323</v>
+        <v>813</v>
       </c>
       <c r="C98">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="D98">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="E98">
-        <v>230</v>
+        <v>126</v>
       </c>
       <c r="F98">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="G98">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H98">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I98">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J98" s="1">
         <f t="shared" si="4"/>
-        <v>12.692099077924427</v>
+        <v>29.657027572293202</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
@@ -4168,32 +4052,32 @@
         <v>13</v>
       </c>
       <c r="B99">
-        <v>2604</v>
+        <v>1080</v>
       </c>
       <c r="C99">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="D99">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="E99">
-        <v>251</v>
+        <v>168</v>
       </c>
       <c r="F99">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="G99">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H99">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I99">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J99" s="1">
         <f t="shared" si="4"/>
-        <v>13.618864292589027</v>
+        <v>33.627400103788268</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
@@ -4201,32 +4085,32 @@
         <v>13</v>
       </c>
       <c r="B100">
-        <v>2645</v>
+        <v>1175</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="D100">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="E100">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="F100">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="G100">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H100">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I100">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J100" s="1">
         <f t="shared" si="4"/>
-        <v>6.3099943534726144</v>
+        <v>19.106796116504853</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
@@ -4234,32 +4118,32 @@
         <v>13</v>
       </c>
       <c r="B101">
-        <v>3091</v>
+        <v>1347</v>
       </c>
       <c r="C101">
-        <v>486</v>
+        <v>172</v>
       </c>
       <c r="D101">
-        <v>256</v>
+        <v>178</v>
       </c>
       <c r="E101">
-        <v>267</v>
+        <v>183</v>
       </c>
       <c r="F101">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="G101">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H101">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I101">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J101" s="1">
         <f t="shared" si="4"/>
-        <v>10.142630744849445</v>
+        <v>17.405475880052151</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
@@ -4267,32 +4151,32 @@
         <v>13</v>
       </c>
       <c r="B102">
-        <v>3283</v>
+        <v>1620</v>
       </c>
       <c r="C102">
-        <v>192</v>
+        <v>273</v>
       </c>
       <c r="D102">
-        <v>226</v>
+        <v>180</v>
       </c>
       <c r="E102">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="F102">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="G102">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H102">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I102">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J102" s="1">
         <f t="shared" si="4"/>
-        <v>8.129496402877697</v>
+        <v>14.991671293725705</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
@@ -4300,32 +4184,32 @@
         <v>13</v>
       </c>
       <c r="B103">
-        <v>3445</v>
+        <v>1754</v>
       </c>
       <c r="C103">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="D103">
-        <v>280</v>
+        <v>193</v>
       </c>
       <c r="E103">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="F103">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="G103">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="H103">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I103">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J103" s="1">
         <f t="shared" si="4"/>
-        <v>9.3136711387071731</v>
+        <v>13.978754225012072</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
@@ -4333,32 +4217,32 @@
         <v>13</v>
       </c>
       <c r="B104">
-        <v>3707</v>
+        <v>2157</v>
       </c>
       <c r="C104">
-        <v>262</v>
+        <v>403</v>
       </c>
       <c r="D104">
-        <v>205</v>
+        <v>270</v>
       </c>
       <c r="E104">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F104">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="G104">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="H104">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I104">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J104" s="1">
         <f t="shared" si="4"/>
-        <v>6.263366941643751</v>
+        <v>17.157381910612159</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
@@ -4366,32 +4250,32 @@
         <v>13</v>
       </c>
       <c r="B105">
-        <v>3993</v>
+        <v>2323</v>
       </c>
       <c r="C105">
-        <v>286</v>
+        <v>166</v>
       </c>
       <c r="D105">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E105">
-        <v>278</v>
+        <v>230</v>
       </c>
       <c r="F105">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="G105">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="H105">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I105">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J105" s="1">
         <f t="shared" si="4"/>
-        <v>6.8136080498322951</v>
+        <v>12.692099077924427</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
@@ -4399,262 +4283,265 @@
         <v>13</v>
       </c>
       <c r="B106">
-        <v>4279</v>
+        <v>2604</v>
       </c>
       <c r="C106">
-        <v>286</v>
-      </c>
-      <c r="D106" s="2">
-        <f>SUM(C104:C106)/3</f>
-        <v>278</v>
-      </c>
-      <c r="E106" s="2">
-        <f>SUM(C102:C106)/5</f>
-        <v>237.6</v>
+        <v>281</v>
+      </c>
+      <c r="D106">
+        <v>283</v>
+      </c>
+      <c r="E106">
+        <v>251</v>
       </c>
       <c r="F106">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G106">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="H106">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I106">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J106" s="1">
         <f t="shared" si="4"/>
-        <v>7.483176312247644</v>
+        <v>13.618864292589027</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B107">
-        <v>287</v>
+        <v>2645</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="F107">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="G107">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J107" s="1">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>6.3099943534726144</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B108">
-        <v>391</v>
+        <v>3091</v>
       </c>
       <c r="C108">
-        <v>104</v>
+        <v>486</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="F108">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="G108">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J108" s="1">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10.142630744849445</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B109">
-        <v>325</v>
+        <v>3283</v>
       </c>
       <c r="C109">
-        <v>53</v>
+        <v>192</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="F109">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="G109">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H109">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J109" s="1">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>8.129496402877697</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B110">
-        <v>478</v>
+        <v>3445</v>
       </c>
       <c r="C110">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="D110">
-        <v>103</v>
+        <v>280</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="F110">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="G110">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H110">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J110" s="1">
-        <f t="shared" ref="J110:J127" si="5">D110/(SUM(B107:B109)/3)*100</f>
-        <v>30.807577268195413</v>
+        <f t="shared" si="4"/>
+        <v>9.3136711387071731</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>13</v>
+      </c>
+      <c r="B111">
+        <v>3707</v>
+      </c>
+      <c r="C111">
+        <v>262</v>
+      </c>
+      <c r="D111">
+        <v>205</v>
+      </c>
+      <c r="E111">
+        <v>221</v>
+      </c>
+      <c r="F111">
+        <v>59</v>
+      </c>
+      <c r="G111">
+        <v>27</v>
+      </c>
+      <c r="H111">
+        <v>19</v>
+      </c>
+      <c r="I111">
         <v>14</v>
       </c>
-      <c r="B111">
-        <v>669</v>
-      </c>
-      <c r="C111">
-        <v>191</v>
-      </c>
-      <c r="D111">
-        <v>132</v>
-      </c>
-      <c r="E111">
-        <v>0</v>
-      </c>
-      <c r="F111">
-        <v>8</v>
-      </c>
-      <c r="G111">
-        <v>0</v>
-      </c>
-      <c r="H111">
-        <v>5</v>
-      </c>
-      <c r="I111">
-        <v>0</v>
-      </c>
       <c r="J111" s="1">
-        <f t="shared" si="5"/>
-        <v>33.165829145728644</v>
+        <f t="shared" si="4"/>
+        <v>6.263366941643751</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B112">
-        <v>803</v>
+        <v>3993</v>
       </c>
       <c r="C112">
-        <v>134</v>
+        <v>286</v>
       </c>
       <c r="D112">
-        <v>159</v>
+        <v>237</v>
       </c>
       <c r="E112">
-        <v>127</v>
+        <v>278</v>
       </c>
       <c r="F112">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="G112">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="H112">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J112" s="1">
-        <f t="shared" si="5"/>
-        <v>32.404891304347828</v>
+        <f t="shared" si="4"/>
+        <v>6.8136080498322951</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B113">
-        <v>1023</v>
+        <v>4279</v>
       </c>
       <c r="C113">
-        <v>220</v>
-      </c>
-      <c r="D113">
-        <v>182</v>
-      </c>
-      <c r="E113">
-        <v>150</v>
+        <v>286</v>
+      </c>
+      <c r="D113" s="2">
+        <f>SUM(C111:C113)/3</f>
+        <v>278</v>
+      </c>
+      <c r="E113" s="2">
+        <f>SUM(C109:C113)/5</f>
+        <v>237.6</v>
       </c>
       <c r="F113">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="G113">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="H113">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J113" s="1">
-        <f t="shared" si="5"/>
-        <v>28.000000000000004</v>
+        <f t="shared" si="4"/>
+        <v>7.483176312247644</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
@@ -4662,32 +4549,31 @@
         <v>14</v>
       </c>
       <c r="B114">
-        <v>1306</v>
+        <v>287</v>
       </c>
       <c r="C114">
-        <v>283</v>
+        <v>0</v>
       </c>
       <c r="D114">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="E114">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="F114">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
         <v>1</v>
       </c>
-      <c r="H114">
-        <v>8</v>
-      </c>
       <c r="I114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" s="1">
-        <f t="shared" si="5"/>
-        <v>25.490981963927855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
@@ -4695,32 +4581,31 @@
         <v>14</v>
       </c>
       <c r="B115">
-        <v>1483</v>
+        <v>391</v>
       </c>
       <c r="C115">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="D115">
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="E115">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="G115">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H115">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J115" s="1">
-        <f t="shared" si="5"/>
-        <v>21.743295019157088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
@@ -4728,32 +4613,31 @@
         <v>14</v>
       </c>
       <c r="B116">
-        <v>1764</v>
+        <v>325</v>
       </c>
       <c r="C116">
-        <v>281</v>
+        <v>53</v>
       </c>
       <c r="D116">
-        <v>247</v>
+        <v>0</v>
       </c>
       <c r="E116">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="G116">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H116">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I116">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J116" s="1">
-        <f t="shared" si="5"/>
-        <v>19.438614900314793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
@@ -4761,32 +4645,32 @@
         <v>14</v>
       </c>
       <c r="B117">
-        <v>2140</v>
+        <v>478</v>
       </c>
       <c r="C117">
-        <v>376</v>
+        <v>153</v>
       </c>
       <c r="D117">
-        <v>278</v>
+        <v>103</v>
       </c>
       <c r="E117">
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="G117">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H117">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I117">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J117" s="1">
-        <f t="shared" si="5"/>
-        <v>18.317592795958706</v>
+        <f t="shared" ref="J117:J134" si="5">D117/(SUM(B114:B116)/3)*100</f>
+        <v>30.807577268195413</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
@@ -4794,32 +4678,32 @@
         <v>14</v>
       </c>
       <c r="B118">
-        <v>2357</v>
+        <v>669</v>
       </c>
       <c r="C118">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="D118">
-        <v>288</v>
+        <v>132</v>
       </c>
       <c r="E118">
-        <v>265</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="G118">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H118">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I118">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J118" s="1">
         <f t="shared" si="5"/>
-        <v>16.038611472062371</v>
+        <v>33.165829145728644</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
@@ -4827,32 +4711,32 @@
         <v>14</v>
       </c>
       <c r="B119">
-        <v>2810</v>
+        <v>803</v>
       </c>
       <c r="C119">
-        <v>463</v>
+        <v>134</v>
       </c>
       <c r="D119">
-        <v>349</v>
+        <v>159</v>
       </c>
       <c r="E119">
-        <v>301</v>
+        <v>127</v>
       </c>
       <c r="F119">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G119">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H119">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I119">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J119" s="1">
         <f t="shared" si="5"/>
-        <v>16.722568279827506</v>
+        <v>32.404891304347828</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
@@ -4860,32 +4744,32 @@
         <v>14</v>
       </c>
       <c r="B120">
-        <v>3150</v>
+        <v>1023</v>
       </c>
       <c r="C120">
-        <v>340</v>
+        <v>220</v>
       </c>
       <c r="D120">
-        <v>337</v>
+        <v>182</v>
       </c>
       <c r="E120">
-        <v>333</v>
+        <v>150</v>
       </c>
       <c r="F120">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G120">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H120">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I120">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J120" s="1">
         <f t="shared" si="5"/>
-        <v>13.836047625564529</v>
+        <v>28.000000000000004</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
@@ -4893,32 +4777,32 @@
         <v>14</v>
       </c>
       <c r="B121">
-        <v>3450</v>
+        <v>1306</v>
       </c>
       <c r="C121">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="D121">
-        <v>368</v>
+        <v>212</v>
       </c>
       <c r="E121">
-        <v>337</v>
+        <v>196</v>
       </c>
       <c r="F121">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="G121">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="H121">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I121">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J121" s="1">
         <f t="shared" si="5"/>
-        <v>13.274017073463989</v>
+        <v>25.490981963927855</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
@@ -4926,32 +4810,32 @@
         <v>14</v>
       </c>
       <c r="B122">
-        <v>3732</v>
+        <v>1483</v>
       </c>
       <c r="C122">
-        <v>282</v>
+        <v>177</v>
       </c>
       <c r="D122">
-        <v>307</v>
+        <v>227</v>
       </c>
       <c r="E122">
-        <v>318</v>
+        <v>201</v>
       </c>
       <c r="F122">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="G122">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="H122">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I122">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J122" s="1">
         <f t="shared" si="5"/>
-        <v>9.7874601487778961</v>
+        <v>21.743295019157088</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
@@ -4959,32 +4843,32 @@
         <v>14</v>
       </c>
       <c r="B123">
-        <v>4063</v>
+        <v>1764</v>
       </c>
       <c r="C123">
-        <v>331</v>
+        <v>281</v>
       </c>
       <c r="D123">
-        <v>304</v>
+        <v>247</v>
       </c>
       <c r="E123">
-        <v>343</v>
+        <v>219</v>
       </c>
       <c r="F123">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="G123">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="H123">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I123">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J123" s="1">
         <f t="shared" si="5"/>
-        <v>8.8269454123112663</v>
+        <v>19.438614900314793</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
@@ -4992,32 +4876,32 @@
         <v>14</v>
       </c>
       <c r="B124">
-        <v>4382</v>
+        <v>2140</v>
       </c>
       <c r="C124">
-        <v>319</v>
+        <v>376</v>
       </c>
       <c r="D124">
-        <v>311</v>
+        <v>278</v>
       </c>
       <c r="E124">
-        <v>314</v>
+        <v>267</v>
       </c>
       <c r="F124">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="G124">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="H124">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I124">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J124" s="1">
         <f t="shared" si="5"/>
-        <v>8.2970208981769673</v>
+        <v>18.317592795958706</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
@@ -5025,32 +4909,32 @@
         <v>14</v>
       </c>
       <c r="B125">
-        <v>4695</v>
+        <v>2357</v>
       </c>
       <c r="C125">
-        <v>313</v>
+        <v>207</v>
       </c>
       <c r="D125">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="E125">
-        <v>309</v>
+        <v>265</v>
       </c>
       <c r="F125">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="G125">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="H125">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I125">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J125" s="1">
         <f t="shared" si="5"/>
-        <v>7.908351810790835</v>
+        <v>16.038611472062371</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
@@ -5058,32 +4942,32 @@
         <v>14</v>
       </c>
       <c r="B126">
-        <v>5081</v>
+        <v>2810</v>
       </c>
       <c r="C126">
-        <v>386</v>
+        <v>463</v>
       </c>
       <c r="D126">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="E126">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="F126">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="G126">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="H126">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I126">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J126" s="1">
         <f t="shared" si="5"/>
-        <v>7.7397260273972606</v>
+        <v>16.722568279827506</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
@@ -5091,262 +4975,265 @@
         <v>14</v>
       </c>
       <c r="B127">
-        <v>5571</v>
+        <v>3150</v>
       </c>
       <c r="C127">
-        <v>490</v>
-      </c>
-      <c r="D127" s="2">
-        <f>SUM(C125:C127)/3</f>
-        <v>396.33333333333331</v>
-      </c>
-      <c r="E127" s="2">
-        <f>SUM(C123:C127)/5</f>
-        <v>367.8</v>
+        <v>340</v>
+      </c>
+      <c r="D127">
+        <v>337</v>
+      </c>
+      <c r="E127">
+        <v>333</v>
       </c>
       <c r="F127">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="G127">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="H127">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I127">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J127" s="1">
         <f t="shared" si="5"/>
-        <v>8.3980788246927531</v>
+        <v>13.836047625564529</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>14</v>
+      </c>
+      <c r="B128">
+        <v>3450</v>
+      </c>
+      <c r="C128">
+        <v>300</v>
+      </c>
+      <c r="D128">
+        <v>368</v>
+      </c>
+      <c r="E128">
+        <v>337</v>
+      </c>
+      <c r="F128">
+        <v>43</v>
+      </c>
+      <c r="G128">
+        <v>21</v>
+      </c>
+      <c r="H128">
         <v>15</v>
       </c>
-      <c r="B128">
-        <v>1407</v>
-      </c>
-      <c r="C128">
-        <v>0</v>
-      </c>
-      <c r="D128">
-        <v>0</v>
-      </c>
-      <c r="E128">
-        <v>0</v>
-      </c>
-      <c r="F128">
+      <c r="I128">
         <v>8</v>
       </c>
-      <c r="G128">
-        <v>6</v>
-      </c>
-      <c r="H128">
-        <v>1</v>
-      </c>
-      <c r="I128">
-        <v>1</v>
-      </c>
       <c r="J128" s="1">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>13.274017073463989</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B129">
-        <v>1541</v>
+        <v>3732</v>
       </c>
       <c r="C129">
-        <v>134</v>
+        <v>282</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>307</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>318</v>
       </c>
       <c r="F129">
+        <v>47</v>
+      </c>
+      <c r="G129">
+        <v>26</v>
+      </c>
+      <c r="H129">
+        <v>16</v>
+      </c>
+      <c r="I129">
         <v>9</v>
       </c>
-      <c r="G129">
-        <v>6</v>
-      </c>
-      <c r="H129">
-        <v>2</v>
-      </c>
-      <c r="I129">
-        <v>2</v>
-      </c>
       <c r="J129" s="1">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>9.7874601487778961</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B130">
-        <v>2105</v>
+        <v>4063</v>
       </c>
       <c r="C130">
-        <v>564</v>
+        <v>331</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>343</v>
       </c>
       <c r="F130">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="G130">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="H130">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="I130">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J130" s="1">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>8.8269454123112663</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B131">
-        <v>2372</v>
+        <v>4382</v>
       </c>
       <c r="C131">
-        <v>267</v>
+        <v>319</v>
       </c>
       <c r="D131">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>314</v>
       </c>
       <c r="F131">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="G131">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="H131">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="I131">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J131" s="1">
-        <f t="shared" ref="J131:J148" si="6">D131/(SUM(B128:B130)/3)*100</f>
-        <v>19.117356026123097</v>
+        <f t="shared" si="5"/>
+        <v>8.2970208981769673</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B132">
-        <v>3033</v>
+        <v>4695</v>
       </c>
       <c r="C132">
-        <v>661</v>
+        <v>313</v>
       </c>
       <c r="D132">
-        <v>497</v>
+        <v>321</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>309</v>
       </c>
       <c r="F132">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="G132">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="H132">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="I132">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J132" s="1">
-        <f t="shared" si="6"/>
-        <v>24.775672981056829</v>
+        <f t="shared" si="5"/>
+        <v>7.908351810790835</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B133">
-        <v>3497</v>
+        <v>5081</v>
       </c>
       <c r="C133">
-        <v>464</v>
+        <v>386</v>
       </c>
       <c r="D133">
-        <v>464</v>
+        <v>339</v>
       </c>
       <c r="E133">
-        <v>418</v>
+        <v>326</v>
       </c>
       <c r="F133">
+        <v>64</v>
+      </c>
+      <c r="G133">
+        <v>65</v>
+      </c>
+      <c r="H133">
         <v>20</v>
       </c>
-      <c r="G133">
-        <v>6</v>
-      </c>
-      <c r="H133">
-        <v>6</v>
-      </c>
       <c r="I133">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J133" s="1">
-        <f t="shared" si="6"/>
-        <v>18.535286284953393</v>
+        <f t="shared" si="5"/>
+        <v>7.7397260273972606</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B134">
-        <v>3542</v>
+        <v>5571</v>
       </c>
       <c r="C134">
-        <v>45</v>
-      </c>
-      <c r="D134">
-        <v>390</v>
-      </c>
-      <c r="E134">
-        <v>400</v>
+        <v>490</v>
+      </c>
+      <c r="D134" s="2">
+        <f>SUM(C132:C134)/3</f>
+        <v>396.33333333333331</v>
+      </c>
+      <c r="E134" s="2">
+        <f>SUM(C130:C134)/5</f>
+        <v>367.8</v>
       </c>
       <c r="F134">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="G134">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="H134">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="I134">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J134" s="1">
-        <f t="shared" si="6"/>
-        <v>13.143113906987194</v>
+        <f t="shared" si="5"/>
+        <v>8.3980788246927531</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
@@ -5354,32 +5241,31 @@
         <v>15</v>
       </c>
       <c r="B135">
-        <v>3545</v>
+        <v>1407</v>
       </c>
       <c r="C135">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D135">
-        <v>171</v>
+        <v>0</v>
       </c>
       <c r="E135">
-        <v>288</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G135">
         <v>6</v>
       </c>
       <c r="H135">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I135">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J135" s="1">
-        <f t="shared" si="6"/>
-        <v>5.0933280381254962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
@@ -5387,32 +5273,31 @@
         <v>15</v>
       </c>
       <c r="B136">
-        <v>5615</v>
+        <v>1541</v>
       </c>
       <c r="C136">
-        <v>2070</v>
+        <v>134</v>
       </c>
       <c r="D136">
-        <v>706</v>
+        <v>0</v>
       </c>
       <c r="E136">
-        <v>649</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="G136">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="H136">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I136">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J136" s="1">
-        <f t="shared" si="6"/>
-        <v>20.011337868480723</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
@@ -5420,32 +5305,31 @@
         <v>15</v>
       </c>
       <c r="B137">
-        <v>6318</v>
+        <v>2105</v>
       </c>
       <c r="C137">
-        <v>703</v>
+        <v>564</v>
       </c>
       <c r="D137">
-        <v>925</v>
+        <v>0</v>
       </c>
       <c r="E137">
-        <v>657</v>
+        <v>0</v>
       </c>
       <c r="F137">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="G137">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="H137">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I137">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J137" s="1">
-        <f t="shared" si="6"/>
-        <v>21.846953235710913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
@@ -5453,32 +5337,32 @@
         <v>15</v>
       </c>
       <c r="B138">
-        <v>7197</v>
+        <v>2372</v>
       </c>
       <c r="C138">
-        <v>879</v>
+        <v>267</v>
       </c>
       <c r="D138">
-        <v>1217</v>
+        <v>322</v>
       </c>
       <c r="E138">
-        <v>740</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G138">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="H138">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I138">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J138" s="1">
-        <f t="shared" si="6"/>
-        <v>23.588318904251196</v>
+        <f t="shared" ref="J138:J155" si="6">D138/(SUM(B135:B137)/3)*100</f>
+        <v>19.117356026123097</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
@@ -5486,32 +5370,32 @@
         <v>15</v>
       </c>
       <c r="B139">
-        <v>7924</v>
+        <v>3033</v>
       </c>
       <c r="C139">
-        <v>727</v>
+        <v>661</v>
       </c>
       <c r="D139">
-        <v>770</v>
+        <v>497</v>
       </c>
       <c r="E139">
-        <v>876</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="G139">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="H139">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I139">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J139" s="1">
         <f t="shared" si="6"/>
-        <v>12.075274438055409</v>
+        <v>24.775672981056829</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
@@ -5519,32 +5403,32 @@
         <v>15</v>
       </c>
       <c r="B140">
-        <v>9235</v>
+        <v>3497</v>
       </c>
       <c r="C140">
-        <v>1311</v>
+        <v>464</v>
       </c>
       <c r="D140">
-        <v>972</v>
+        <v>464</v>
       </c>
       <c r="E140">
-        <v>1138</v>
+        <v>418</v>
       </c>
       <c r="F140">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="G140">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="H140">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I140">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J140" s="1">
         <f t="shared" si="6"/>
-        <v>13.601380661411447</v>
+        <v>18.535286284953393</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
@@ -5552,32 +5436,32 @@
         <v>15</v>
       </c>
       <c r="B141">
-        <v>10607</v>
+        <v>3542</v>
       </c>
       <c r="C141">
-        <v>1472</v>
+        <v>45</v>
       </c>
       <c r="D141">
-        <v>1170</v>
+        <v>390</v>
       </c>
       <c r="E141">
-        <v>1018</v>
+        <v>400</v>
       </c>
       <c r="F141">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="G141">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="H141">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I141">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J141" s="1">
         <f t="shared" si="6"/>
-        <v>14.4112333716538</v>
+        <v>13.143113906987194</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
@@ -5585,32 +5469,32 @@
         <v>15</v>
       </c>
       <c r="B142">
-        <v>11400</v>
+        <v>3545</v>
       </c>
       <c r="C142">
-        <v>793</v>
+        <v>3</v>
       </c>
       <c r="D142">
-        <v>1192</v>
+        <v>171</v>
       </c>
       <c r="E142">
-        <v>1036</v>
+        <v>288</v>
       </c>
       <c r="F142">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G142">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="H142">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I142">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J142" s="1">
         <f t="shared" si="6"/>
-        <v>12.879060721746018</v>
+        <v>5.0933280381254962</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
@@ -5618,32 +5502,32 @@
         <v>15</v>
       </c>
       <c r="B143">
-        <v>12178</v>
+        <v>5615</v>
       </c>
       <c r="C143">
-        <v>778</v>
+        <v>2070</v>
       </c>
       <c r="D143">
-        <v>1014</v>
+        <v>706</v>
       </c>
       <c r="E143">
-        <v>1016</v>
+        <v>649</v>
       </c>
       <c r="F143">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="G143">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="H143">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I143">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J143" s="1">
         <f t="shared" si="6"/>
-        <v>9.7368926445169972</v>
+        <v>20.011337868480723</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
@@ -5651,32 +5535,32 @@
         <v>15</v>
       </c>
       <c r="B144">
-        <v>13225</v>
+        <v>6318</v>
       </c>
       <c r="C144">
-        <v>1047</v>
+        <v>703</v>
       </c>
       <c r="D144">
-        <v>873</v>
+        <v>925</v>
       </c>
       <c r="E144">
-        <v>1080</v>
+        <v>657</v>
       </c>
       <c r="F144">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G144">
-        <v>117</v>
+        <v>33</v>
       </c>
       <c r="H144">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I144">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J144" s="1">
         <f t="shared" si="6"/>
-        <v>7.6612549363756024</v>
+        <v>21.846953235710913</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
@@ -5684,32 +5568,32 @@
         <v>15</v>
       </c>
       <c r="B145">
-        <v>14351</v>
+        <v>7197</v>
       </c>
       <c r="C145">
-        <v>1126</v>
+        <v>879</v>
       </c>
       <c r="D145">
-        <v>984</v>
+        <v>1217</v>
       </c>
       <c r="E145">
-        <v>1043</v>
+        <v>740</v>
       </c>
       <c r="F145">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G145">
-        <v>134</v>
+        <v>43</v>
       </c>
       <c r="H145">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I145">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J145" s="1">
         <f t="shared" si="6"/>
-        <v>8.0210852376164983</v>
+        <v>23.588318904251196</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
@@ -5717,32 +5601,32 @@
         <v>15</v>
       </c>
       <c r="B146">
-        <v>15427</v>
+        <v>7924</v>
       </c>
       <c r="C146">
-        <v>1076</v>
+        <v>727</v>
       </c>
       <c r="D146">
-        <v>1083</v>
+        <v>770</v>
       </c>
       <c r="E146">
-        <v>964</v>
+        <v>876</v>
       </c>
       <c r="F146">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="G146">
-        <v>161</v>
+        <v>53</v>
       </c>
       <c r="H146">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I146">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="J146" s="1">
         <f t="shared" si="6"/>
-        <v>8.1727624893092514</v>
+        <v>12.075274438055409</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
@@ -5750,32 +5634,32 @@
         <v>15</v>
       </c>
       <c r="B147">
-        <v>16606</v>
+        <v>9235</v>
       </c>
       <c r="C147">
-        <v>1179</v>
+        <v>1311</v>
       </c>
       <c r="D147">
-        <v>1127</v>
+        <v>972</v>
       </c>
       <c r="E147">
-        <v>1041</v>
+        <v>1138</v>
       </c>
       <c r="F147">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="G147">
-        <v>178</v>
+        <v>72</v>
       </c>
       <c r="H147">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I147">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J147" s="1">
         <f t="shared" si="6"/>
-        <v>7.8622421691509885</v>
+        <v>13.601380661411447</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
@@ -5783,262 +5667,265 @@
         <v>15</v>
       </c>
       <c r="B148">
-        <v>17885</v>
+        <v>10607</v>
       </c>
       <c r="C148">
-        <v>1279</v>
-      </c>
-      <c r="D148" s="2">
-        <f>SUM(C146:C148)/3</f>
-        <v>1178</v>
-      </c>
-      <c r="E148" s="2">
-        <f>SUM(C144:C148)/5</f>
-        <v>1141.4000000000001</v>
+        <v>1472</v>
+      </c>
+      <c r="D148">
+        <v>1170</v>
+      </c>
+      <c r="E148">
+        <v>1018</v>
       </c>
       <c r="F148">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="G148">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="H148">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I148">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J148" s="1">
         <f t="shared" si="6"/>
-        <v>7.619006553984133</v>
+        <v>14.4112333716538</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B149">
-        <v>168</v>
+        <v>11400</v>
       </c>
       <c r="C149">
-        <v>0</v>
+        <v>793</v>
       </c>
       <c r="D149">
-        <v>0</v>
+        <v>1192</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>1036</v>
       </c>
       <c r="F149">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="G149">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I149">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J149" s="1">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>12.879060721746018</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
+        <v>15</v>
+      </c>
+      <c r="B150">
+        <v>12178</v>
+      </c>
+      <c r="C150">
+        <v>778</v>
+      </c>
+      <c r="D150">
+        <v>1014</v>
+      </c>
+      <c r="E150">
+        <v>1016</v>
+      </c>
+      <c r="F150">
+        <v>68</v>
+      </c>
+      <c r="G150">
+        <v>101</v>
+      </c>
+      <c r="H150">
         <v>16</v>
       </c>
-      <c r="B150">
-        <v>325</v>
-      </c>
-      <c r="C150">
-        <v>157</v>
-      </c>
-      <c r="D150">
-        <v>0</v>
-      </c>
-      <c r="E150">
-        <v>0</v>
-      </c>
-      <c r="F150">
-        <v>8</v>
-      </c>
-      <c r="G150">
-        <v>0</v>
-      </c>
-      <c r="H150">
-        <v>2</v>
-      </c>
       <c r="I150">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J150" s="1">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>9.7368926445169972</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B151">
-        <v>442</v>
+        <v>13225</v>
       </c>
       <c r="C151">
+        <v>1047</v>
+      </c>
+      <c r="D151">
+        <v>873</v>
+      </c>
+      <c r="E151">
+        <v>1080</v>
+      </c>
+      <c r="F151">
+        <v>74</v>
+      </c>
+      <c r="G151">
         <v>117</v>
       </c>
-      <c r="D151">
-        <v>0</v>
-      </c>
-      <c r="E151">
-        <v>0</v>
-      </c>
-      <c r="F151">
-        <v>11</v>
-      </c>
-      <c r="G151">
-        <v>0</v>
-      </c>
       <c r="H151">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J151" s="1">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>7.6612549363756024</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B152">
-        <v>474</v>
+        <v>14351</v>
       </c>
       <c r="C152">
-        <v>32</v>
+        <v>1126</v>
       </c>
       <c r="D152">
-        <v>102</v>
+        <v>984</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>1043</v>
       </c>
       <c r="F152">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="G152">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="H152">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J152" s="1">
-        <f t="shared" ref="J152:J169" si="7">D152/(SUM(B149:B151)/3)*100</f>
-        <v>32.727272727272727</v>
+        <f t="shared" si="6"/>
+        <v>8.0210852376164983</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B153">
-        <v>637</v>
+        <v>15427</v>
       </c>
       <c r="C153">
-        <v>163</v>
+        <v>1076</v>
       </c>
       <c r="D153">
-        <v>104</v>
+        <v>1083</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>964</v>
       </c>
       <c r="F153">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="G153">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="H153">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J153" s="1">
-        <f t="shared" si="7"/>
-        <v>25.141015310233684</v>
+        <f t="shared" si="6"/>
+        <v>8.1727624893092514</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B154">
-        <v>801</v>
+        <v>16606</v>
       </c>
       <c r="C154">
-        <v>164</v>
+        <v>1179</v>
       </c>
       <c r="D154">
-        <v>120</v>
+        <v>1127</v>
       </c>
       <c r="E154">
-        <v>127</v>
+        <v>1041</v>
       </c>
       <c r="F154">
+        <v>93</v>
+      </c>
+      <c r="G154">
+        <v>178</v>
+      </c>
+      <c r="H154">
         <v>20</v>
       </c>
-      <c r="G154">
-        <v>1</v>
-      </c>
-      <c r="H154">
-        <v>6</v>
-      </c>
       <c r="I154">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J154" s="1">
-        <f t="shared" si="7"/>
-        <v>23.180940115904704</v>
+        <f t="shared" si="6"/>
+        <v>7.8622421691509885</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B155">
-        <v>938</v>
+        <v>17885</v>
       </c>
       <c r="C155">
-        <v>137</v>
-      </c>
-      <c r="D155">
-        <v>155</v>
-      </c>
-      <c r="E155">
-        <v>123</v>
+        <v>1279</v>
+      </c>
+      <c r="D155" s="2">
+        <f>SUM(C153:C155)/3</f>
+        <v>1178</v>
+      </c>
+      <c r="E155" s="2">
+        <f>SUM(C151:C155)/5</f>
+        <v>1141.4000000000001</v>
       </c>
       <c r="F155">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="G155">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="H155">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="I155">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="J155" s="1">
-        <f t="shared" si="7"/>
-        <v>24.320083682008367</v>
+        <f t="shared" si="6"/>
+        <v>7.619006553984133</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
@@ -6046,32 +5933,31 @@
         <v>16</v>
       </c>
       <c r="B156">
-        <v>1053</v>
+        <v>168</v>
       </c>
       <c r="C156">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="D156">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="E156">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="F156">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="G156">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H156">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I156">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J156" s="1">
-        <f t="shared" si="7"/>
-        <v>17.550505050505048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
@@ -6079,32 +5965,31 @@
         <v>16</v>
       </c>
       <c r="B157">
-        <v>1177</v>
+        <v>325</v>
       </c>
       <c r="C157">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="D157">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="E157">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="F157">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157">
         <v>2</v>
       </c>
-      <c r="H157">
-        <v>9</v>
-      </c>
       <c r="I157">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J157" s="1">
-        <f t="shared" si="7"/>
-        <v>13.431232091690545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
@@ -6112,32 +5997,31 @@
         <v>16</v>
       </c>
       <c r="B158">
-        <v>1370</v>
+        <v>442</v>
       </c>
       <c r="C158">
-        <v>193</v>
+        <v>117</v>
       </c>
       <c r="D158">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="E158">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="F158">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="G158">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H158">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I158">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J158" s="1">
-        <f t="shared" si="7"/>
-        <v>13.636363636363635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
@@ -6145,32 +6029,32 @@
         <v>16</v>
       </c>
       <c r="B159">
-        <v>1591</v>
+        <v>474</v>
       </c>
       <c r="C159">
-        <v>221</v>
+        <v>32</v>
       </c>
       <c r="D159">
-        <v>179</v>
+        <v>102</v>
       </c>
       <c r="E159">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="F159">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G159">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H159">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I159">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J159" s="1">
-        <f t="shared" si="7"/>
-        <v>14.916666666666668</v>
+        <f t="shared" ref="J159:J176" si="7">D159/(SUM(B156:B158)/3)*100</f>
+        <v>32.727272727272727</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
@@ -6178,32 +6062,32 @@
         <v>16</v>
       </c>
       <c r="B160">
-        <v>1816</v>
+        <v>637</v>
       </c>
       <c r="C160">
-        <v>225</v>
+        <v>163</v>
       </c>
       <c r="D160">
-        <v>213</v>
+        <v>104</v>
       </c>
       <c r="E160">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="F160">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="G160">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H160">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I160">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J160" s="1">
         <f t="shared" si="7"/>
-        <v>15.442242629289513</v>
+        <v>25.141015310233684</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
@@ -6211,32 +6095,32 @@
         <v>16</v>
       </c>
       <c r="B161">
-        <v>1971</v>
+        <v>801</v>
       </c>
       <c r="C161">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="D161">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="E161">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="F161">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="G161">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H161">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I161">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J161" s="1">
         <f t="shared" si="7"/>
-        <v>12.56018421603517</v>
+        <v>23.180940115904704</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
@@ -6244,32 +6128,32 @@
         <v>16</v>
       </c>
       <c r="B162">
-        <v>2212</v>
+        <v>938</v>
       </c>
       <c r="C162">
-        <v>241</v>
+        <v>137</v>
       </c>
       <c r="D162">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="E162">
-        <v>207</v>
+        <v>123</v>
       </c>
       <c r="F162">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="G162">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H162">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I162">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J162" s="1">
         <f t="shared" si="7"/>
-        <v>11.547043510598735</v>
+        <v>24.320083682008367</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
@@ -6277,32 +6161,32 @@
         <v>16</v>
       </c>
       <c r="B163">
-        <v>2396</v>
+        <v>1053</v>
       </c>
       <c r="C163">
-        <v>184</v>
+        <v>115</v>
       </c>
       <c r="D163">
-        <v>193</v>
+        <v>139</v>
       </c>
       <c r="E163">
-        <v>205</v>
+        <v>122</v>
       </c>
       <c r="F163">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="G163">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H163">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I163">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J163" s="1">
         <f t="shared" si="7"/>
-        <v>9.6516086014335709</v>
+        <v>17.550505050505048</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
@@ -6310,32 +6194,32 @@
         <v>16</v>
       </c>
       <c r="B164">
-        <v>2584</v>
+        <v>1177</v>
       </c>
       <c r="C164">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c r="D164">
-        <v>204</v>
+        <v>125</v>
       </c>
       <c r="E164">
-        <v>199</v>
+        <v>141</v>
       </c>
       <c r="F164">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="G164">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="H164">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I164">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J164" s="1">
         <f t="shared" si="7"/>
-        <v>9.3023255813953494</v>
+        <v>13.431232091690545</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
@@ -6343,32 +6227,32 @@
         <v>16</v>
       </c>
       <c r="B165">
-        <v>2726</v>
+        <v>1370</v>
       </c>
       <c r="C165">
-        <v>142</v>
+        <v>193</v>
       </c>
       <c r="D165">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E165">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="F165">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="G165">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H165">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I165">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J165" s="1">
         <f t="shared" si="7"/>
-        <v>7.1329254727474964</v>
+        <v>13.636363636363635</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
@@ -6376,32 +6260,32 @@
         <v>16</v>
       </c>
       <c r="B166">
-        <v>2899</v>
+        <v>1591</v>
       </c>
       <c r="C166">
-        <v>173</v>
+        <v>221</v>
       </c>
       <c r="D166">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="E166">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="F166">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="G166">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="H166">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I166">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J166" s="1">
         <f t="shared" si="7"/>
-        <v>6.5403581624708025</v>
+        <v>14.916666666666668</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
@@ -6409,32 +6293,32 @@
         <v>16</v>
       </c>
       <c r="B167">
-        <v>3132</v>
+        <v>1816</v>
       </c>
       <c r="C167">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D167">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="E167">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F167">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="G167">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="H167">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I167">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J167" s="1">
         <f t="shared" si="7"/>
-        <v>6.6877817030088922</v>
+        <v>15.442242629289513</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.2">
@@ -6442,32 +6326,32 @@
         <v>16</v>
       </c>
       <c r="B168">
-        <v>3362</v>
+        <v>1971</v>
       </c>
       <c r="C168">
-        <v>230</v>
+        <v>155</v>
       </c>
       <c r="D168">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="E168">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="F168">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="G168">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="H168">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I168">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J168" s="1">
         <f t="shared" si="7"/>
-        <v>7.2627612195957525</v>
+        <v>12.56018421603517</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.2">
@@ -6475,262 +6359,265 @@
         <v>16</v>
       </c>
       <c r="B169">
-        <v>3504</v>
+        <v>2212</v>
       </c>
       <c r="C169">
-        <v>142</v>
-      </c>
-      <c r="D169" s="2">
-        <f>SUM(C167:C169)/3</f>
-        <v>201.66666666666666</v>
-      </c>
-      <c r="E169" s="2">
-        <f>SUM(C165:C169)/5</f>
-        <v>184</v>
+        <v>241</v>
+      </c>
+      <c r="D169">
+        <v>207</v>
+      </c>
+      <c r="E169">
+        <v>207</v>
       </c>
       <c r="F169">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="G169">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="H169">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I169">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J169" s="1">
         <f t="shared" si="7"/>
-        <v>6.4409666773128924</v>
+        <v>11.547043510598735</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B170">
-        <v>130</v>
+        <v>2396</v>
       </c>
       <c r="C170">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="D170">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="F170">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="G170">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J170" s="1">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>9.6516086014335709</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B171">
-        <v>140</v>
+        <v>2584</v>
       </c>
       <c r="C171">
-        <v>10</v>
+        <v>188</v>
       </c>
       <c r="D171">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="F171">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="G171">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I171">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J171" s="1">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>9.3023255813953494</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
+        <v>16</v>
+      </c>
+      <c r="B172">
+        <v>2726</v>
+      </c>
+      <c r="C172">
+        <v>142</v>
+      </c>
+      <c r="D172">
+        <v>171</v>
+      </c>
+      <c r="E172">
+        <v>182</v>
+      </c>
+      <c r="F172">
+        <v>67</v>
+      </c>
+      <c r="G172">
+        <v>19</v>
+      </c>
+      <c r="H172">
         <v>17</v>
       </c>
-      <c r="B172">
-        <v>182</v>
-      </c>
-      <c r="C172">
-        <v>79</v>
-      </c>
-      <c r="D172">
-        <v>0</v>
-      </c>
-      <c r="E172">
-        <v>0</v>
-      </c>
-      <c r="F172">
-        <v>5</v>
-      </c>
-      <c r="G172">
-        <v>0</v>
-      </c>
-      <c r="H172">
-        <v>3</v>
-      </c>
       <c r="I172">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J172" s="1">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>7.1329254727474964</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B173">
-        <v>198</v>
+        <v>2899</v>
       </c>
       <c r="C173">
-        <v>16</v>
+        <v>173</v>
       </c>
       <c r="D173">
-        <v>35</v>
+        <v>168</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="F173">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="G173">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H173">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J173" s="1">
-        <f t="shared" ref="J173:J190" si="8">D173/(SUM(B170:B172)/3)*100</f>
-        <v>23.230088495575224</v>
+        <f t="shared" si="7"/>
+        <v>6.5403581624708025</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B174">
-        <v>275</v>
+        <v>3132</v>
       </c>
       <c r="C174">
+        <v>233</v>
+      </c>
+      <c r="D174">
+        <v>183</v>
+      </c>
+      <c r="E174">
+        <v>184</v>
+      </c>
+      <c r="F174">
         <v>77</v>
       </c>
-      <c r="D174">
-        <v>57</v>
-      </c>
-      <c r="E174">
-        <v>0</v>
-      </c>
-      <c r="F174">
-        <v>7</v>
-      </c>
       <c r="G174">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="H174">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J174" s="1">
-        <f t="shared" si="8"/>
-        <v>32.884615384615387</v>
+        <f t="shared" si="7"/>
+        <v>6.6877817030088922</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B175">
-        <v>394</v>
+        <v>3362</v>
       </c>
       <c r="C175">
-        <v>119</v>
+        <v>230</v>
       </c>
       <c r="D175">
-        <v>71</v>
+        <v>212</v>
       </c>
       <c r="E175">
-        <v>60</v>
+        <v>193</v>
       </c>
       <c r="F175">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="G175">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="H175">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J175" s="1">
-        <f t="shared" si="8"/>
-        <v>32.519083969465647</v>
+        <f t="shared" si="7"/>
+        <v>7.2627612195957525</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B176">
-        <v>567</v>
+        <v>3504</v>
       </c>
       <c r="C176">
-        <v>173</v>
-      </c>
-      <c r="D176">
-        <v>123</v>
-      </c>
-      <c r="E176">
-        <v>93</v>
+        <v>142</v>
+      </c>
+      <c r="D176" s="2">
+        <f>SUM(C174:C176)/3</f>
+        <v>201.66666666666666</v>
+      </c>
+      <c r="E176" s="2">
+        <f>SUM(C172:C176)/5</f>
+        <v>184</v>
       </c>
       <c r="F176">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="G176">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H176">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J176" s="1">
-        <f t="shared" si="8"/>
-        <v>42.560553633217992</v>
+        <f t="shared" si="7"/>
+        <v>6.4409666773128924</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.2">
@@ -6738,32 +6625,31 @@
         <v>17</v>
       </c>
       <c r="B177">
-        <v>606</v>
+        <v>130</v>
       </c>
       <c r="C177">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="D177">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="E177">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="F177">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G177">
         <v>0</v>
       </c>
       <c r="H177">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I177">
         <v>0</v>
       </c>
       <c r="J177" s="1">
-        <f t="shared" si="8"/>
-        <v>26.699029126213592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
@@ -6771,32 +6657,31 @@
         <v>17</v>
       </c>
       <c r="B178">
-        <v>653</v>
+        <v>140</v>
       </c>
       <c r="C178">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="D178">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="E178">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="F178">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G178">
         <v>0</v>
       </c>
       <c r="H178">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I178">
         <v>0</v>
       </c>
       <c r="J178" s="1">
-        <f t="shared" si="8"/>
-        <v>16.464582003828969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.2">
@@ -6804,32 +6689,31 @@
         <v>17</v>
       </c>
       <c r="B179">
-        <v>811</v>
+        <v>182</v>
       </c>
       <c r="C179">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="D179">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="E179">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H179">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J179" s="1">
-        <f t="shared" si="8"/>
-        <v>13.307776560788609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.2">
@@ -6837,32 +6721,32 @@
         <v>17</v>
       </c>
       <c r="B180">
-        <v>959</v>
+        <v>198</v>
       </c>
       <c r="C180">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="D180">
-        <v>118</v>
+        <v>35</v>
       </c>
       <c r="E180">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="F180">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="G180">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H180">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I180">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J180" s="1">
-        <f t="shared" si="8"/>
-        <v>17.101449275362317</v>
+        <f t="shared" ref="J180:J197" si="8">D180/(SUM(B177:B179)/3)*100</f>
+        <v>23.230088495575224</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.2">
@@ -6870,32 +6754,32 @@
         <v>17</v>
       </c>
       <c r="B181">
-        <v>1141</v>
+        <v>275</v>
       </c>
       <c r="C181">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="D181">
-        <v>163</v>
+        <v>57</v>
       </c>
       <c r="E181">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="F181">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="G181">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H181">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I181">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J181" s="1">
         <f t="shared" si="8"/>
-        <v>20.181593066446553</v>
+        <v>32.884615384615387</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
@@ -6903,32 +6787,32 @@
         <v>17</v>
       </c>
       <c r="B182">
-        <v>1305</v>
+        <v>394</v>
       </c>
       <c r="C182">
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="D182">
-        <v>165</v>
+        <v>71</v>
       </c>
       <c r="E182">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="F182">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="G182">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H182">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I182">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J182" s="1">
         <f t="shared" si="8"/>
-        <v>17.00446581930608</v>
+        <v>32.519083969465647</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
@@ -6936,32 +6820,32 @@
         <v>17</v>
       </c>
       <c r="B183">
-        <v>1432</v>
+        <v>567</v>
       </c>
       <c r="C183">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="D183">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="E183">
-        <v>156</v>
+        <v>93</v>
       </c>
       <c r="F183">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="G183">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H183">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I183">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J183" s="1">
         <f t="shared" si="8"/>
-        <v>13.920704845814976</v>
+        <v>42.560553633217992</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.2">
@@ -6969,32 +6853,32 @@
         <v>17</v>
       </c>
       <c r="B184">
-        <v>1617</v>
+        <v>606</v>
       </c>
       <c r="C184">
-        <v>185</v>
+        <v>39</v>
       </c>
       <c r="D184">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="E184">
-        <v>161</v>
+        <v>85</v>
       </c>
       <c r="F184">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="G184">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H184">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I184">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J184" s="1">
         <f t="shared" si="8"/>
-        <v>12.300154718927281</v>
+        <v>26.699029126213592</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.2">
@@ -7002,32 +6886,32 @@
         <v>17</v>
       </c>
       <c r="B185">
-        <v>1795</v>
+        <v>653</v>
       </c>
       <c r="C185">
-        <v>178</v>
+        <v>47</v>
       </c>
       <c r="D185">
-        <v>163</v>
+        <v>86</v>
       </c>
       <c r="E185">
-        <v>167</v>
+        <v>91</v>
       </c>
       <c r="F185">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="H185">
         <v>9</v>
       </c>
-      <c r="H185">
-        <v>16</v>
-      </c>
       <c r="I185">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J185" s="1">
         <f t="shared" si="8"/>
-        <v>11.231051906293064</v>
+        <v>16.464582003828969</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.2">
@@ -7035,32 +6919,32 @@
         <v>17</v>
       </c>
       <c r="B186">
-        <v>1882</v>
+        <v>811</v>
       </c>
       <c r="C186">
-        <v>87</v>
+        <v>158</v>
       </c>
       <c r="D186">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="E186">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="F186">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="G186">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H186">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I186">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J186" s="1">
         <f t="shared" si="8"/>
-        <v>9.2898431048720056</v>
+        <v>13.307776560788609</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
@@ -7068,32 +6952,32 @@
         <v>17</v>
       </c>
       <c r="B187">
-        <v>2034</v>
+        <v>959</v>
       </c>
       <c r="C187">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D187">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E187">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="F187">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="G187">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H187">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I187">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J187" s="1">
         <f t="shared" si="8"/>
-        <v>7.8768417075935018</v>
+        <v>17.101449275362317</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
@@ -7101,32 +6985,32 @@
         <v>17</v>
       </c>
       <c r="B188">
-        <v>2183</v>
+        <v>1141</v>
       </c>
       <c r="C188">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="D188">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="E188">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="F188">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="G188">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="H188">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I188">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J188" s="1">
         <f t="shared" si="8"/>
-        <v>6.7763964279460689</v>
+        <v>20.181593066446553</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.2">
@@ -7134,32 +7018,32 @@
         <v>17</v>
       </c>
       <c r="B189">
-        <v>2336</v>
+        <v>1305</v>
       </c>
       <c r="C189">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="D189">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="E189">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F189">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="G189">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="H189">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I189">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J189" s="1">
         <f t="shared" si="8"/>
-        <v>7.4274471224790943</v>
+        <v>17.00446581930608</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
@@ -7167,262 +7051,265 @@
         <v>17</v>
       </c>
       <c r="B190">
-        <v>2591</v>
+        <v>1432</v>
       </c>
       <c r="C190">
-        <v>255</v>
-      </c>
-      <c r="D190" s="2">
-        <f>SUM(C188:C190)/3</f>
-        <v>185.66666666666666</v>
-      </c>
-      <c r="E190" s="2">
-        <f>SUM(C186:C190)/5</f>
-        <v>159.19999999999999</v>
+        <v>127</v>
+      </c>
+      <c r="D190">
+        <v>158</v>
+      </c>
+      <c r="E190">
+        <v>156</v>
       </c>
       <c r="F190">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="G190">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="H190">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I190">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J190" s="1">
         <f t="shared" si="8"/>
-        <v>8.4999236990691269</v>
+        <v>13.920704845814976</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B191">
-        <v>103</v>
+        <v>1617</v>
       </c>
       <c r="C191">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="D191">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="F191">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="G191">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I191">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J191" s="1">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>12.300154718927281</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B192">
-        <v>123</v>
+        <v>1795</v>
       </c>
       <c r="C192">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="D192">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="F192">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="G192">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I192">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J192" s="1">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>11.231051906293064</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B193">
-        <v>127</v>
+        <v>1882</v>
       </c>
       <c r="C193">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="D193">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="F193">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="G193">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H193">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="I193">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J193" s="1">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>9.2898431048720056</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
+        <v>17</v>
+      </c>
+      <c r="B194">
+        <v>2034</v>
+      </c>
+      <c r="C194">
+        <v>152</v>
+      </c>
+      <c r="D194">
+        <v>139</v>
+      </c>
+      <c r="E194">
+        <v>146</v>
+      </c>
+      <c r="F194">
+        <v>50</v>
+      </c>
+      <c r="G194">
+        <v>17</v>
+      </c>
+      <c r="H194">
         <v>18</v>
       </c>
-      <c r="B194">
-        <v>159</v>
-      </c>
-      <c r="C194">
-        <v>32</v>
-      </c>
-      <c r="D194">
-        <v>25</v>
-      </c>
-      <c r="E194">
-        <v>0</v>
-      </c>
-      <c r="F194">
-        <v>6</v>
-      </c>
-      <c r="G194">
-        <v>0</v>
-      </c>
-      <c r="H194">
-        <v>4</v>
-      </c>
       <c r="I194">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J194" s="1">
-        <f t="shared" ref="J194:J211" si="9">D194/(SUM(B191:B193)/3)*100</f>
-        <v>21.246458923512748</v>
+        <f t="shared" si="8"/>
+        <v>7.8768417075935018</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
+        <v>17</v>
+      </c>
+      <c r="B195">
+        <v>2183</v>
+      </c>
+      <c r="C195">
+        <v>149</v>
+      </c>
+      <c r="D195">
+        <v>129</v>
+      </c>
+      <c r="E195">
+        <v>150</v>
+      </c>
+      <c r="F195">
+        <v>54</v>
+      </c>
+      <c r="G195">
         <v>18</v>
       </c>
-      <c r="B195">
-        <v>202</v>
-      </c>
-      <c r="C195">
-        <v>43</v>
-      </c>
-      <c r="D195">
-        <v>33</v>
-      </c>
-      <c r="E195">
-        <v>0</v>
-      </c>
-      <c r="F195">
-        <v>7</v>
-      </c>
-      <c r="G195">
-        <v>0</v>
-      </c>
       <c r="H195">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="I195">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J195" s="1">
-        <f t="shared" si="9"/>
-        <v>24.205378973105134</v>
+        <f t="shared" si="8"/>
+        <v>6.7763964279460689</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B196">
-        <v>266</v>
+        <v>2336</v>
       </c>
       <c r="C196">
-        <v>64</v>
+        <v>153</v>
       </c>
       <c r="D196">
-        <v>46</v>
+        <v>151</v>
       </c>
       <c r="E196">
-        <v>36</v>
+        <v>144</v>
       </c>
       <c r="F196">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="G196">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H196">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="I196">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J196" s="1">
-        <f t="shared" si="9"/>
-        <v>28.278688524590166</v>
+        <f t="shared" si="8"/>
+        <v>7.4274471224790943</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B197">
-        <v>308</v>
+        <v>2591</v>
       </c>
       <c r="C197">
-        <v>42</v>
-      </c>
-      <c r="D197">
-        <v>50</v>
-      </c>
-      <c r="E197">
-        <v>41</v>
+        <v>255</v>
+      </c>
+      <c r="D197" s="2">
+        <f>SUM(C195:C197)/3</f>
+        <v>185.66666666666666</v>
+      </c>
+      <c r="E197" s="2">
+        <f>SUM(C193:C197)/5</f>
+        <v>159.19999999999999</v>
       </c>
       <c r="F197">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="G197">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="H197">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="I197">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J197" s="1">
-        <f t="shared" si="9"/>
-        <v>23.923444976076556</v>
+        <f t="shared" si="8"/>
+        <v>8.4999236990691269</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.2">
@@ -7430,32 +7317,31 @@
         <v>18</v>
       </c>
       <c r="B198">
-        <v>347</v>
+        <v>103</v>
       </c>
       <c r="C198">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="D198">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="E198">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="F198">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G198">
+        <v>0</v>
+      </c>
+      <c r="H198">
         <v>1</v>
       </c>
-      <c r="H198">
-        <v>8</v>
-      </c>
       <c r="I198">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J198" s="1">
-        <f t="shared" si="9"/>
-        <v>18.556701030927833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.2">
@@ -7463,32 +7349,31 @@
         <v>18</v>
       </c>
       <c r="B199">
-        <v>383</v>
+        <v>123</v>
       </c>
       <c r="C199">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D199">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="E199">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F199">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H199">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I199">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J199" s="1">
-        <f t="shared" si="9"/>
-        <v>12.703583061889251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.2">
@@ -7496,32 +7381,31 @@
         <v>18</v>
       </c>
       <c r="B200">
-        <v>478</v>
+        <v>127</v>
       </c>
       <c r="C200">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="D200">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="E200">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="F200">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G200">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H200">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I200">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J200" s="1">
-        <f t="shared" si="9"/>
-        <v>16.473988439306357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.2">
@@ -7529,32 +7413,32 @@
         <v>18</v>
       </c>
       <c r="B201">
-        <v>577</v>
+        <v>159</v>
       </c>
       <c r="C201">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="D201">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="E201">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="F201">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G201">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H201">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I201">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J201" s="1">
-        <f t="shared" si="9"/>
-        <v>19.122516556291387</v>
+        <f t="shared" ref="J201:J218" si="9">D201/(SUM(B198:B200)/3)*100</f>
+        <v>21.246458923512748</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.2">
@@ -7562,32 +7446,32 @@
         <v>18</v>
       </c>
       <c r="B202">
-        <v>675</v>
+        <v>202</v>
       </c>
       <c r="C202">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="D202">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="E202">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="F202">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G202">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H202">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I202">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J202" s="1">
         <f t="shared" si="9"/>
-        <v>20.236439499304591</v>
+        <v>24.205378973105134</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.2">
@@ -7595,32 +7479,32 @@
         <v>18</v>
       </c>
       <c r="B203">
-        <v>812</v>
+        <v>266</v>
       </c>
       <c r="C203">
-        <v>137</v>
+        <v>64</v>
       </c>
       <c r="D203">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="E203">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="F203">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G203">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H203">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I203">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J203" s="1">
         <f t="shared" si="9"/>
-        <v>19.2485549132948</v>
+        <v>28.278688524590166</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.2">
@@ -7628,32 +7512,32 @@
         <v>18</v>
       </c>
       <c r="B204">
-        <v>915</v>
+        <v>308</v>
       </c>
       <c r="C204">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="D204">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="E204">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="F204">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G204">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H204">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I204">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J204" s="1">
         <f t="shared" si="9"/>
-        <v>16.424418604651162</v>
+        <v>23.923444976076556</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.2">
@@ -7661,32 +7545,32 @@
         <v>18</v>
       </c>
       <c r="B205">
-        <v>1005</v>
+        <v>347</v>
       </c>
       <c r="C205">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="D205">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="E205">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="F205">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="G205">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H205">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I205">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J205" s="1">
         <f t="shared" si="9"/>
-        <v>13.738551207327228</v>
+        <v>18.556701030927833</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.2">
@@ -7694,32 +7578,32 @@
         <v>18</v>
       </c>
       <c r="B206">
-        <v>1049</v>
+        <v>383</v>
       </c>
       <c r="C206">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D206">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="E206">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="F206">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="G206">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H206">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I206">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J206" s="1">
         <f t="shared" si="9"/>
-        <v>8.6749633967789173</v>
+        <v>12.703583061889251</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.2">
@@ -7727,32 +7611,32 @@
         <v>18</v>
       </c>
       <c r="B207">
-        <v>1120</v>
+        <v>478</v>
       </c>
       <c r="C207">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="D207">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E207">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="F207">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="G207">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H207">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I207">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J207" s="1">
         <f t="shared" si="9"/>
-        <v>6.8710003368137427</v>
+        <v>16.473988439306357</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.2">
@@ -7760,32 +7644,32 @@
         <v>18</v>
       </c>
       <c r="B208">
-        <v>1246</v>
+        <v>577</v>
       </c>
       <c r="C208">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="D208">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E208">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="F208">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G208">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H208">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I208">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J208" s="1">
         <f t="shared" si="9"/>
-        <v>7.5614366729678641</v>
+        <v>19.122516556291387</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.2">
@@ -7793,32 +7677,32 @@
         <v>18</v>
       </c>
       <c r="B209">
-        <v>1335</v>
+        <v>675</v>
       </c>
       <c r="C209">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D209">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E209">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F209">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="G209">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H209">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I209">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J209" s="1">
         <f t="shared" si="9"/>
-        <v>8.3455344070278183</v>
+        <v>20.236439499304591</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.2">
@@ -7826,32 +7710,32 @@
         <v>18</v>
       </c>
       <c r="B210">
-        <v>1443</v>
+        <v>812</v>
       </c>
       <c r="C210">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="D210">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E210">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F210">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G210">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H210">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I210">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J210" s="1">
         <f t="shared" si="9"/>
-        <v>8.7543907052148064</v>
+        <v>19.2485549132948</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.2">
@@ -7859,32 +7743,263 @@
         <v>18</v>
       </c>
       <c r="B211">
+        <v>915</v>
+      </c>
+      <c r="C211">
+        <v>103</v>
+      </c>
+      <c r="D211">
+        <v>113</v>
+      </c>
+      <c r="E211">
+        <v>106</v>
+      </c>
+      <c r="F211">
+        <v>32</v>
+      </c>
+      <c r="G211">
+        <v>4</v>
+      </c>
+      <c r="H211">
+        <v>14</v>
+      </c>
+      <c r="I211">
+        <v>9</v>
+      </c>
+      <c r="J211" s="1">
+        <f t="shared" si="9"/>
+        <v>16.424418604651162</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>18</v>
+      </c>
+      <c r="B212">
+        <v>1005</v>
+      </c>
+      <c r="C212">
+        <v>90</v>
+      </c>
+      <c r="D212">
+        <v>110</v>
+      </c>
+      <c r="E212">
+        <v>105</v>
+      </c>
+      <c r="F212">
+        <v>35</v>
+      </c>
+      <c r="G212">
+        <v>6</v>
+      </c>
+      <c r="H212">
+        <v>15</v>
+      </c>
+      <c r="I212">
+        <v>10</v>
+      </c>
+      <c r="J212" s="1">
+        <f t="shared" si="9"/>
+        <v>13.738551207327228</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>18</v>
+      </c>
+      <c r="B213">
+        <v>1049</v>
+      </c>
+      <c r="C213">
+        <v>44</v>
+      </c>
+      <c r="D213">
+        <v>79</v>
+      </c>
+      <c r="E213">
+        <v>94</v>
+      </c>
+      <c r="F213">
+        <v>36</v>
+      </c>
+      <c r="G213">
+        <v>7</v>
+      </c>
+      <c r="H213">
+        <v>16</v>
+      </c>
+      <c r="I213">
+        <v>11</v>
+      </c>
+      <c r="J213" s="1">
+        <f t="shared" si="9"/>
+        <v>8.6749633967789173</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>18</v>
+      </c>
+      <c r="B214">
+        <v>1120</v>
+      </c>
+      <c r="C214">
+        <v>71</v>
+      </c>
+      <c r="D214">
+        <v>68</v>
+      </c>
+      <c r="E214">
+        <v>89</v>
+      </c>
+      <c r="F214">
+        <v>39</v>
+      </c>
+      <c r="G214">
+        <v>9</v>
+      </c>
+      <c r="H214">
+        <v>17</v>
+      </c>
+      <c r="I214">
+        <v>12</v>
+      </c>
+      <c r="J214" s="1">
+        <f t="shared" si="9"/>
+        <v>6.8710003368137427</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>18</v>
+      </c>
+      <c r="B215">
+        <v>1246</v>
+      </c>
+      <c r="C215">
+        <v>126</v>
+      </c>
+      <c r="D215">
+        <v>80</v>
+      </c>
+      <c r="E215">
+        <v>87</v>
+      </c>
+      <c r="F215">
+        <v>43</v>
+      </c>
+      <c r="G215">
+        <v>10</v>
+      </c>
+      <c r="H215">
+        <v>18</v>
+      </c>
+      <c r="I215">
+        <v>13</v>
+      </c>
+      <c r="J215" s="1">
+        <f t="shared" si="9"/>
+        <v>7.5614366729678641</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>18</v>
+      </c>
+      <c r="B216">
+        <v>1335</v>
+      </c>
+      <c r="C216">
+        <v>89</v>
+      </c>
+      <c r="D216">
+        <v>95</v>
+      </c>
+      <c r="E216">
+        <v>84</v>
+      </c>
+      <c r="F216">
+        <v>46</v>
+      </c>
+      <c r="G216">
+        <v>11</v>
+      </c>
+      <c r="H216">
+        <v>19</v>
+      </c>
+      <c r="I216">
+        <v>14</v>
+      </c>
+      <c r="J216" s="1">
+        <f t="shared" si="9"/>
+        <v>8.3455344070278183</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>18</v>
+      </c>
+      <c r="B217">
+        <v>1443</v>
+      </c>
+      <c r="C217">
+        <v>108</v>
+      </c>
+      <c r="D217">
+        <v>108</v>
+      </c>
+      <c r="E217">
+        <v>88</v>
+      </c>
+      <c r="F217">
+        <v>50</v>
+      </c>
+      <c r="G217">
+        <v>15</v>
+      </c>
+      <c r="H217">
+        <v>20</v>
+      </c>
+      <c r="I217">
+        <v>15</v>
+      </c>
+      <c r="J217" s="1">
+        <f t="shared" si="9"/>
+        <v>8.7543907052148064</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>18</v>
+      </c>
+      <c r="B218">
         <v>1559</v>
       </c>
-      <c r="C211">
+      <c r="C218">
         <v>116</v>
       </c>
-      <c r="D211" s="2">
-        <f>SUM(C209:C211)/3</f>
+      <c r="D218" s="2">
+        <f>SUM(C216:C218)/3</f>
         <v>104.33333333333333</v>
       </c>
-      <c r="E211" s="2">
-        <f>SUM(C207:C211)/5</f>
+      <c r="E218" s="2">
+        <f>SUM(C214:C218)/5</f>
         <v>102</v>
       </c>
-      <c r="F211">
+      <c r="F218">
         <v>54</v>
       </c>
-      <c r="G211">
+      <c r="G218">
         <v>17</v>
       </c>
-      <c r="H211">
+      <c r="H218">
         <v>21</v>
       </c>
-      <c r="I211">
+      <c r="I218">
         <v>16</v>
       </c>
-      <c r="J211" s="1">
+      <c r="J218" s="1">
         <f t="shared" si="9"/>
         <v>7.7783300198807162</v>
       </c>

--- a/public/data/Germany10States.xlsx
+++ b/public/data/Germany10States.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nancyyu/Documents/R website/First_Website/static/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC6BA758-02DE-0546-B252-B25639D4FD7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FA6417-0715-4641-8831-C4B1750D9BB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8160" yWindow="460" windowWidth="25500" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2840" yWindow="960" windowWidth="25500" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany10States" sheetId="1" r:id="rId1"/>
@@ -937,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J218"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91:XFD91"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2431,12 +2431,12 @@
         <v>1128</v>
       </c>
       <c r="D47" s="2">
-        <f>SUM(C44:C47)/3</f>
-        <v>2159.3333333333335</v>
+        <f>SUM(C44:C46)/3</f>
+        <v>1783.3333333333333</v>
       </c>
       <c r="E47" s="2">
-        <f>SUM(C42:C47)/5</f>
-        <v>2032.8</v>
+        <f>SUM(C43:C47)/5</f>
+        <v>1695.4</v>
       </c>
       <c r="F47">
         <v>191</v>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="J47" s="1">
         <f>D47/(SUM(B43:B45)/3)*100</f>
-        <v>10.682541514816709</v>
+        <v>8.822413878399102</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
